--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1176,64 +1176,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC71"/>
+  <dimension ref="A1:AD81"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A976" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1000" sqref="$A1:$XFD1000"/>
+    <sheetView tabSelected="true" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1525423728814" defaultRowHeight="15.05"/>
   <cols>
-    <col min="1" max="1" width="7.6015625" customWidth="true"/>
+    <col min="1" max="1" width="8.6015625" customWidth="true"/>
     <col min="2" max="2" width="5.6015625" customWidth="true"/>
     <col min="3" max="3" width="11.6015625" customWidth="true"/>
-    <col min="5" max="5" width="8.6015625" customWidth="true"/>
+    <col min="4" max="4" width="11.6015625" customWidth="true"/>
+    <col min="5" max="5" width="7.15625" customWidth="true"/>
     <col min="6" max="6" width="7.15625" customWidth="true"/>
     <col min="7" max="7" width="4.6015625" customWidth="true"/>
     <col min="8" max="8" width="2.15625" customWidth="true"/>
+    <col min="9" max="9" width="2.15625" customWidth="true"/>
     <col min="10" max="10" width="6.6015625" customWidth="true"/>
     <col min="11" max="11" width="3.15625" customWidth="true"/>
     <col min="12" max="12" width="4.6015625" customWidth="true"/>
     <col min="13" max="13" width="2.15625" customWidth="true"/>
     <col min="14" max="14" width="12.6015625" customWidth="true"/>
     <col min="15" max="15" width="11.6015625" customWidth="true"/>
-    <col min="17" max="17" width="13.6015625" customWidth="true"/>
+    <col min="16" max="16" width="11.6015625" customWidth="true"/>
+    <col min="17" max="17" width="12.6015625" customWidth="true"/>
     <col min="18" max="18" width="13.6015625" customWidth="true"/>
     <col min="19" max="19" width="12.6015625" customWidth="true"/>
     <col min="20" max="20" width="11.6015625" customWidth="true"/>
     <col min="21" max="21" width="13.6015625" customWidth="true"/>
-    <col min="23" max="23" width="11.6015625" customWidth="true"/>
+    <col min="22" max="22" width="13.6015625" customWidth="true"/>
+    <col min="23" max="23" width="12.6015625" customWidth="true"/>
+    <col min="24" max="24" width="11.6015625" customWidth="true"/>
     <col min="25" max="25" width="13.6015625" customWidth="true"/>
-    <col min="26" max="26" width="14.6015625" customWidth="true"/>
+    <col min="26" max="26" width="13.6015625" customWidth="true"/>
     <col min="27" max="27" width="12.6015625" customWidth="true"/>
     <col min="28" max="28" width="11.6015625" customWidth="true"/>
     <col min="29" max="29" width="13.6015625" customWidth="true"/>
-    <col min="30" max="30" width="4.6016949152542" customWidth="true"/>
-    <col min="31" max="31" width="3.6016949152542" customWidth="true"/>
-    <col min="32" max="40" width="4.6016949152542" customWidth="true"/>
-    <col min="41" max="41" width="3.6016949152542" customWidth="true"/>
-    <col min="42" max="50" width="4.6016949152542" customWidth="true"/>
-    <col min="51" max="51" width="2.1525423728814" customWidth="true"/>
-    <col min="52" max="60" width="4.6016949152542" customWidth="true"/>
-    <col min="61" max="61" width="3.6016949152542" customWidth="true"/>
-    <col min="62" max="70" width="4.6016949152542" customWidth="true"/>
-    <col min="71" max="71" width="3.6016949152542" customWidth="true"/>
-    <col min="72" max="80" width="4.6016949152542" customWidth="true"/>
-    <col min="81" max="81" width="3.6016949152542" customWidth="true"/>
-    <col min="82" max="90" width="4.6016949152542" customWidth="true"/>
-    <col min="91" max="91" width="3.6016949152542" customWidth="true"/>
-    <col min="92" max="100" width="4.6016949152542" customWidth="true"/>
-    <col min="101" max="101" width="3.6016949152542" customWidth="true"/>
-    <col min="4" max="4" width="11.6015625" customWidth="true"/>
-    <col min="9" max="9" width="2.15625" customWidth="true"/>
-    <col min="16" max="16" width="11.6015625" customWidth="true"/>
-    <col min="22" max="22" width="13.6015625" customWidth="true"/>
-    <col min="24" max="24" width="11.6015625" customWidth="true"/>
+    <col min="30" max="30" width="12.6015625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>5084.4499999999998</v>
+        <v>1016.89</v>
       </c>
       <c r="B1" s="0">
         <v>458.39999999999998</v>
@@ -1245,7 +1230,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E1" s="0">
-        <v>38613</v>
+        <v>128710</v>
       </c>
       <c r="F1" s="0">
         <v>840857</v>
@@ -1272,57 +1257,60 @@
         <v>0</v>
       </c>
       <c r="N1" s="0">
-        <v>0.1248952215662299</v>
+        <v>0.1486958956968511</v>
       </c>
       <c r="O1" s="0">
-        <v>3.5542096153544787</v>
+        <v>19.862874788448387</v>
       </c>
       <c r="P1" s="0">
-        <v>37261.338349792131</v>
+        <v>39989.758303538889</v>
       </c>
       <c r="Q1" s="0">
-        <v>0.077580282494144823</v>
+        <v>0.10265494810968701</v>
       </c>
       <c r="R1" s="0">
-        <v>0.015619501653171221</v>
+        <v>0.032202960771435037</v>
       </c>
       <c r="S1" s="0">
-        <v>0.39816766972269524</v>
+        <v>0.47479439549554342</v>
       </c>
       <c r="T1" s="0">
-        <v>29111.779868570513</v>
+        <v>30894.557859569613</v>
       </c>
       <c r="U1" s="0">
-        <v>0.063395851697487085</v>
+        <v>0.092647004208662065</v>
       </c>
       <c r="V1" s="0">
-        <v>0.054887864823970914</v>
+        <v>0.053491245877110759</v>
       </c>
       <c r="W1" s="0">
-        <v>1.1935645419301764</v>
+        <v>6.4032752704104183</v>
       </c>
       <c r="X1" s="0">
-        <v>8524.0408754869204</v>
+        <v>9909.9392184106764</v>
       </c>
       <c r="Y1" s="0">
-        <v>0.032457770737806556</v>
+        <v>0.035192749377906035</v>
       </c>
       <c r="Z1" s="0">
-        <v>0.0084180710483619508</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA1" s="0">
-        <v>0.10958903936636745</v>
+        <v>0.18397030568393971</v>
       </c>
       <c r="AB1" s="0">
-        <v>8174.9668640285636</v>
+        <v>9689.5193256080656</v>
       </c>
       <c r="AC1" s="0">
-        <v>0.023618762842179924</v>
+        <v>0.03475360629818447</v>
+      </c>
+      <c r="AD1" s="0">
+        <v>1.7928919130967071</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>5084.4499999999998</v>
+        <v>1118.579</v>
       </c>
       <c r="B2" s="0">
         <v>458.39999999999998</v>
@@ -1334,7 +1322,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E2" s="0">
-        <v>41187.200000000004</v>
+        <v>128710</v>
       </c>
       <c r="F2" s="0">
         <v>840857</v>
@@ -1361,57 +1349,60 @@
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>0.12519188874606646</v>
+        <v>0.14856693812962379</v>
       </c>
       <c r="O2" s="0">
-        <v>3.5679249409035805</v>
+        <v>18.002201031632318</v>
       </c>
       <c r="P2" s="0">
-        <v>37447.426587020207</v>
+        <v>40116.052275073773</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.077850638406738878</v>
+        <v>0.10300778727308192</v>
       </c>
       <c r="R2" s="0">
-        <v>0.015731173550437617</v>
+        <v>0.032202960771435057</v>
       </c>
       <c r="S2" s="0">
-        <v>0.39957518994081209</v>
+        <v>0.47479439549554325</v>
       </c>
       <c r="T2" s="0">
-        <v>28926.331750248552</v>
+        <v>30885.874688516011</v>
       </c>
       <c r="U2" s="0">
-        <v>0.063404557837278691</v>
+        <v>0.093373108499513885</v>
       </c>
       <c r="V2" s="0">
-        <v>0.054818993049185492</v>
+        <v>0.053493023811686038</v>
       </c>
       <c r="W2" s="0">
-        <v>1.1951694183713859</v>
+        <v>5.8193720145876515</v>
       </c>
       <c r="X2" s="0">
-        <v>8518.2480563974095</v>
+        <v>9787.9145188435505</v>
       </c>
       <c r="Y2" s="0">
-        <v>0.032558681207924156</v>
+        <v>0.035264292494047042</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.0085944596994774122</v>
+        <v>0.016219872284280332</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.11047686502771589</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB2" s="0">
-        <v>8164.4209219792292</v>
+        <v>9555.2510340974459</v>
       </c>
       <c r="AC2" s="0">
-        <v>0.023940256278448344</v>
+        <v>0.034774236008183107</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>1.6984777806355262</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>5084.4499999999998</v>
+        <v>1220.268</v>
       </c>
       <c r="B3" s="0">
         <v>458.39999999999998</v>
@@ -1423,7 +1414,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E3" s="0">
-        <v>43761.399999999994</v>
+        <v>128710</v>
       </c>
       <c r="F3" s="0">
         <v>840857</v>
@@ -1450,57 +1441,60 @@
         <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>0.12547563549004725</v>
+        <v>0.14833197629923039</v>
       </c>
       <c r="O3" s="0">
-        <v>3.5813552544534719</v>
+        <v>16.437335252988618</v>
       </c>
       <c r="P3" s="0">
-        <v>37645.013307066416</v>
+        <v>40185.339758097631</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.079746129328968227</v>
+        <v>0.10333168302853918</v>
       </c>
       <c r="R3" s="0">
-        <v>0.015865354958772997</v>
+        <v>0.032202960771435057</v>
       </c>
       <c r="S3" s="0">
-        <v>0.40098114572426569</v>
+        <v>0.47479439549554342</v>
       </c>
       <c r="T3" s="0">
-        <v>28741.565804839916</v>
+        <v>30822.50546691216</v>
       </c>
       <c r="U3" s="0">
-        <v>0.06465114076950991</v>
+        <v>0.094124651580849844</v>
       </c>
       <c r="V3" s="0">
-        <v>0.054751440608109762</v>
+        <v>0.053506232070964742</v>
       </c>
       <c r="W3" s="0">
-        <v>1.1969030595020018</v>
+        <v>5.3359871463407851</v>
       </c>
       <c r="X3" s="0">
-        <v>8513.5599703703101</v>
+        <v>9692.9632622371209</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.032662645141273469</v>
+        <v>0.035337708451377237</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.0087722851033770546</v>
+        <v>0.016219872284280339</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.1114425015717691</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB3" s="0">
-        <v>8155.1359780388921</v>
+        <v>9449.2183992044975</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.02428213928065007</v>
+        <v>0.034796649686362723</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>1.6207358488038497</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>5084.4499999999998</v>
+        <v>1321.9570000000001</v>
       </c>
       <c r="B4" s="0">
         <v>458.39999999999998</v>
@@ -1512,7 +1506,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E4" s="0">
-        <v>46335.599999999999</v>
+        <v>128710</v>
       </c>
       <c r="F4" s="0">
         <v>840857</v>
@@ -1539,57 +1533,60 @@
         <v>0</v>
       </c>
       <c r="N4" s="0">
-        <v>0.1257447855672954</v>
+        <v>0.14804115895401124</v>
       </c>
       <c r="O4" s="0">
-        <v>3.5945040115563209</v>
+        <v>15.11431724533084</v>
       </c>
       <c r="P4" s="0">
-        <v>37852.263529996962</v>
+        <v>40212.10329820498</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.081363980843202455</v>
+        <v>0.10363849431868435</v>
       </c>
       <c r="R4" s="0">
-        <v>0.016048680637840894</v>
+        <v>0.032202960771435037</v>
       </c>
       <c r="S4" s="0">
-        <v>0.4023855380314163</v>
+        <v>0.47479439549554375</v>
       </c>
       <c r="T4" s="0">
-        <v>28559.349613436392</v>
+        <v>30708.0381872281</v>
       </c>
       <c r="U4" s="0">
-        <v>0.066131100503847406</v>
+        <v>0.094900816170205543</v>
       </c>
       <c r="V4" s="0">
-        <v>0.054685325071107661</v>
+        <v>0.05352811790763274</v>
       </c>
       <c r="W4" s="0">
-        <v>1.1987691444176722</v>
+        <v>4.9299274022852382</v>
       </c>
       <c r="X4" s="0">
-        <v>8510.0270822190087</v>
+        <v>9617.7931070853956</v>
       </c>
       <c r="Y4" s="0">
-        <v>0.032773188171914665</v>
+        <v>0.035412159504447073</v>
       </c>
       <c r="Z4" s="0">
-        <v>0.0089544221373644688</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.11248885096471282</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB4" s="0">
-        <v>8147.1938970074425</v>
+        <v>9364.2950744127902</v>
       </c>
       <c r="AC4" s="0">
-        <v>0.024644906755749069</v>
+        <v>0.034823375158311833</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>1.5557589165525607</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>5084.4499999999998</v>
+        <v>1423.6460000000002</v>
       </c>
       <c r="B5" s="0">
         <v>458.39999999999998</v>
@@ -1601,7 +1598,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E5" s="0">
-        <v>48909.800000000003</v>
+        <v>128710</v>
       </c>
       <c r="F5" s="0">
         <v>840857</v>
@@ -1628,57 +1625,60 @@
         <v>0</v>
       </c>
       <c r="N5" s="0">
-        <v>0.12599840860194128</v>
+        <v>0.14774186649599969</v>
       </c>
       <c r="O5" s="0">
-        <v>3.6073951116345153</v>
+        <v>13.964938204892063</v>
       </c>
       <c r="P5" s="0">
-        <v>38067.665971582406</v>
+        <v>40203.292882705486</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.082737561347270006</v>
+        <v>0.10393711959763133</v>
       </c>
       <c r="R5" s="0">
-        <v>0.016300152792993676</v>
+        <v>0.032202960771435037</v>
       </c>
       <c r="S5" s="0">
-        <v>0.4037883678202438</v>
+        <v>0.47479439549554359</v>
       </c>
       <c r="T5" s="0">
-        <v>28381.414063304594</v>
+        <v>30555.33006566079</v>
       </c>
       <c r="U5" s="0">
-        <v>0.067606082659532274</v>
+        <v>0.095690292387075188</v>
       </c>
       <c r="V5" s="0">
-        <v>0.05462080627931739</v>
+        <v>0.053556264603085824</v>
       </c>
       <c r="W5" s="0">
-        <v>1.2007717833562603</v>
+        <v>4.5848096900223743</v>
       </c>
       <c r="X5" s="0">
-        <v>8507.6860795911107</v>
+        <v>9557.3415779504248</v>
       </c>
       <c r="Y5" s="0">
-        <v>0.032891052191214638</v>
+        <v>0.035486342743121652</v>
       </c>
       <c r="Z5" s="0">
-        <v>0.0091424872722622036</v>
+        <v>0.016219872284280328</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.11361755685564379</v>
+        <v>0.18397030568393974</v>
       </c>
       <c r="AB5" s="0">
-        <v>8140.6682302750069</v>
+        <v>9295.8606928026747</v>
       </c>
       <c r="AC5" s="0">
-        <v>0.025026880971616105</v>
+        <v>0.034857046313987838</v>
+      </c>
+      <c r="AD5" s="0">
+        <v>1.5008049941407511</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>5084.4499999999998</v>
+        <v>1525.3350000000003</v>
       </c>
       <c r="B6" s="0">
         <v>458.39999999999998</v>
@@ -1690,7 +1690,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E6" s="0">
-        <v>51484</v>
+        <v>128710</v>
       </c>
       <c r="F6" s="0">
         <v>840857</v>
@@ -1717,57 +1717,60 @@
         <v>0</v>
       </c>
       <c r="N6" s="0">
-        <v>0.12623608899599581</v>
+        <v>0.14746343981792714</v>
       </c>
       <c r="O6" s="0">
-        <v>3.6200685413759146</v>
+        <v>12.947515682531447</v>
       </c>
       <c r="P6" s="0">
-        <v>38289.720938171871</v>
+        <v>40164.030799677697</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.083891620133836192</v>
+        <v>0.10423479927818657</v>
       </c>
       <c r="R6" s="0">
-        <v>0.016630973335070642</v>
+        <v>0.032202960771435071</v>
       </c>
       <c r="S6" s="0">
-        <v>0.40518963604834318</v>
+        <v>0.47479439549554336</v>
       </c>
       <c r="T6" s="0">
-        <v>28209.320850478427</v>
+        <v>30379.594326947758</v>
       </c>
       <c r="U6" s="0">
-        <v>0.069240322867841153</v>
+        <v>0.096473753481893243</v>
       </c>
       <c r="V6" s="0">
-        <v>0.054558055842650603</v>
+        <v>0.053588514784689373</v>
       </c>
       <c r="W6" s="0">
-        <v>1.2029154890389908</v>
+        <v>4.2884769119970363</v>
       </c>
       <c r="X6" s="0">
-        <v>8506.5564064382434</v>
+        <v>9507.9606610274204</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.033015043495971411</v>
+        <v>0.035558820542949232</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.0093365787962292751</v>
+        <v>0.016219872284280339</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.11482869097475241</v>
+        <v>0.18397030568393979</v>
       </c>
       <c r="AB6" s="0">
-        <v>8135.6187240367617</v>
+        <v>9240.6305173061392</v>
       </c>
       <c r="AC6" s="0">
-        <v>0.025424615474278645</v>
+        <v>0.034899616006621469</v>
+      </c>
+      <c r="AD6" s="0">
+        <v>1.4538481697320114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>5084.4499999999998</v>
+        <v>1627.0239999999999</v>
       </c>
       <c r="B7" s="0">
         <v>458.39999999999998</v>
@@ -1779,7 +1782,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E7" s="0">
-        <v>54058.199999999997</v>
+        <v>128710</v>
       </c>
       <c r="F7" s="0">
         <v>840857</v>
@@ -1806,57 +1809,60 @@
         <v>0</v>
       </c>
       <c r="N7" s="0">
-        <v>0.12645769229664439</v>
+        <v>0.14721904665819552</v>
       </c>
       <c r="O7" s="0">
-        <v>3.6325775015457644</v>
+        <v>12.031935365211632</v>
       </c>
       <c r="P7" s="0">
-        <v>38516.707236607923</v>
+        <v>40097.054989095785</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.084839091986897541</v>
+        <v>0.10454473986291701</v>
       </c>
       <c r="R7" s="0">
-        <v>0.017045058494051694</v>
+        <v>0.032202960771435037</v>
       </c>
       <c r="S7" s="0">
-        <v>0.40658934367292748</v>
+        <v>0.47479439549554381</v>
       </c>
       <c r="T7" s="0">
-        <v>28044.437341629146</v>
+        <v>30194.616327599466</v>
       </c>
       <c r="U7" s="0">
-        <v>0.071886473319923649</v>
+        <v>0.097229501151120459</v>
       </c>
       <c r="V7" s="0">
-        <v>0.054497240166063644</v>
+        <v>0.053623012105836101</v>
       </c>
       <c r="W7" s="0">
-        <v>1.2052051624847584</v>
+        <v>4.0316106113810379</v>
       </c>
       <c r="X7" s="0">
-        <v>8506.6446317532682</v>
+        <v>9466.9705163473318</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.033143137545895075</v>
+        <v>0.035628303893594962</v>
       </c>
       <c r="Z7" s="0">
-        <v>0.0095354937256171557</v>
+        <v>0.016219872284280332</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.11612102953951406</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB7" s="0">
-        <v>8132.0907164540458</v>
+        <v>9196.0901968442267</v>
       </c>
       <c r="AC7" s="0">
-        <v>0.025833717238953152</v>
+        <v>0.034952064509156014</v>
+      </c>
+      <c r="AD7" s="0">
+        <v>1.4133400053924992</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>5084.4499999999998</v>
+        <v>1728.713</v>
       </c>
       <c r="B8" s="0">
         <v>458.39999999999998</v>
@@ -1868,7 +1874,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E8" s="0">
-        <v>56632.400000000001</v>
+        <v>128710</v>
       </c>
       <c r="F8" s="0">
         <v>840857</v>
@@ -1895,57 +1901,60 @@
         <v>0</v>
       </c>
       <c r="N8" s="0">
-        <v>0.12666363273262854</v>
+        <v>0.14701151956264616</v>
       </c>
       <c r="O8" s="0">
-        <v>3.6449861854104064</v>
+        <v>11.480483022395093</v>
       </c>
       <c r="P8" s="0">
-        <v>38746.636169193385</v>
+        <v>40007.348967492006</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.085589918844272764</v>
+        <v>0.10488405873916916</v>
       </c>
       <c r="R8" s="0">
-        <v>0.017562208011001102</v>
+        <v>0.03220296077143505</v>
       </c>
       <c r="S8" s="0">
-        <v>0.40798749165082682</v>
+        <v>0.47479439549554359</v>
       </c>
       <c r="T8" s="0">
-        <v>27887.917617081832</v>
+        <v>30011.157846337399</v>
       </c>
       <c r="U8" s="0">
-        <v>0.074257844278442411</v>
+        <v>0.097937324116806224</v>
       </c>
       <c r="V8" s="0">
-        <v>0.054438512555228795</v>
+        <v>0.053658228598663545</v>
       </c>
       <c r="W8" s="0">
-        <v>1.2076460736986676</v>
+        <v>3.8069347519843504</v>
       </c>
       <c r="X8" s="0">
-        <v>8507.9560067035036</v>
+        <v>9432.3899368643524</v>
       </c>
       <c r="Y8" s="0">
-        <v>0.033273566402053659</v>
+        <v>0.035693828865068597</v>
       </c>
       <c r="Z8" s="0">
-        <v>0.0097372877656092677</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA8" s="0">
-        <v>0.11749288301484444</v>
+        <v>0.18397030568393971</v>
       </c>
       <c r="AB8" s="0">
-        <v>8130.1205523871622</v>
+        <v>9160.2252069089518</v>
       </c>
       <c r="AC8" s="0">
-        <v>0.02624982550868744</v>
+        <v>0.035014420266490362</v>
+      </c>
+      <c r="AD8" s="0">
+        <v>1.3780738143789077</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>5084.4499999999998</v>
+        <v>1830.4019999999998</v>
       </c>
       <c r="B9" s="0">
         <v>458.39999999999998</v>
@@ -1957,7 +1966,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E9" s="0">
-        <v>59206.599999999999</v>
+        <v>128710</v>
       </c>
       <c r="F9" s="0">
         <v>840857</v>
@@ -1984,57 +1993,60 @@
         <v>0</v>
       </c>
       <c r="N9" s="0">
-        <v>0.12685493186886809</v>
+        <v>0.14683884588083085</v>
       </c>
       <c r="O9" s="0">
-        <v>3.6573675598466018</v>
+        <v>10.971881780247779</v>
       </c>
       <c r="P9" s="0">
-        <v>38977.406544533384</v>
+        <v>39900.906377152176</v>
       </c>
       <c r="Q9" s="0">
-        <v>0.086154795616961599</v>
+        <v>0.10527147493431871</v>
       </c>
       <c r="R9" s="0">
-        <v>0.018476052366834472</v>
+        <v>0.032202960771435037</v>
       </c>
       <c r="S9" s="0">
-        <v>0.40938408093848883</v>
+        <v>0.47479439549554342</v>
       </c>
       <c r="T9" s="0">
-        <v>27740.689083004418</v>
+        <v>29836.563709558406</v>
       </c>
       <c r="U9" s="0">
-        <v>0.076336325864921881</v>
+        <v>0.098581192430833714</v>
       </c>
       <c r="V9" s="0">
-        <v>0.054382010355287558</v>
+        <v>0.053692951369709183</v>
       </c>
       <c r="W9" s="0">
-        <v>1.2102438257838948</v>
+        <v>3.6087107115959234</v>
       </c>
       <c r="X9" s="0">
-        <v>8510.510583657966</v>
+        <v>9402.7551095692997</v>
       </c>
       <c r="Y9" s="0">
-        <v>0.033405682916937643</v>
+        <v>0.035754824518437443</v>
       </c>
       <c r="Z9" s="0">
-        <v>0.0099399896312590396</v>
+        <v>0.016219872284280332</v>
       </c>
       <c r="AA9" s="0">
-        <v>0.11894327452820472</v>
+        <v>0.18397030568393974</v>
       </c>
       <c r="AB9" s="0">
-        <v>8129.7462769612775</v>
+        <v>9131.3840698086151</v>
       </c>
       <c r="AC9" s="0">
-        <v>0.026669514808445646</v>
+        <v>0.035085931065471324</v>
+      </c>
+      <c r="AD9" s="0">
+        <v>1.3470994437405437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>5084.4499999999998</v>
+        <v>1932.0909999999999</v>
       </c>
       <c r="B10" s="0">
         <v>458.39999999999998</v>
@@ -2046,7 +2058,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E10" s="0">
-        <v>61780.799999999996</v>
+        <v>128710</v>
       </c>
       <c r="F10" s="0">
         <v>840857</v>
@@ -2073,57 +2085,60 @@
         <v>0</v>
       </c>
       <c r="N10" s="0">
-        <v>0.1270332021724872</v>
+        <v>0.14669705172673125</v>
       </c>
       <c r="O10" s="0">
-        <v>3.6698008143919623</v>
+        <v>10.498874552905823</v>
       </c>
       <c r="P10" s="0">
-        <v>39207.098390764018</v>
+        <v>39784.534192864172</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.086551836793635789</v>
+        <v>0.10572426933750154</v>
       </c>
       <c r="R10" s="0">
-        <v>0.01930257232688419</v>
+        <v>0.032202960771434995</v>
       </c>
       <c r="S10" s="0">
-        <v>0.41077911249197829</v>
+        <v>0.47479439549554359</v>
       </c>
       <c r="T10" s="0">
-        <v>27603.444392549023</v>
+        <v>29674.958221781679</v>
       </c>
       <c r="U10" s="0">
-        <v>0.078110754493867424</v>
+        <v>0.099146959578082561</v>
       </c>
       <c r="V10" s="0">
-        <v>0.054327854328428425</v>
+        <v>0.053726241760522396</v>
       </c>
       <c r="W10" s="0">
-        <v>1.2130042996601582</v>
+        <v>3.4323842502144086</v>
       </c>
       <c r="X10" s="0">
-        <v>8514.3599379583393</v>
+        <v>9376.9874493023253</v>
       </c>
       <c r="Y10" s="0">
-        <v>0.033540467117327041</v>
+        <v>0.035811096480693957</v>
       </c>
       <c r="Z10" s="0">
-        <v>0.01014227688967599</v>
+        <v>0.016219872284280321</v>
       </c>
       <c r="AA10" s="0">
-        <v>0.12047315219057683</v>
+        <v>0.18397030568393966</v>
       </c>
       <c r="AB10" s="0">
-        <v>8131.0211291692012</v>
+        <v>9108.1997906489269</v>
       </c>
       <c r="AC10" s="0">
-        <v>0.027090937689420745</v>
+        <v>0.035165280901263613</v>
+      </c>
+      <c r="AD10" s="0">
+        <v>1.3196638682606516</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>5084.4499999999998</v>
+        <v>2033.78</v>
       </c>
       <c r="B11" s="0">
         <v>458.39999999999998</v>
@@ -2135,7 +2150,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E11" s="0">
-        <v>64355</v>
+        <v>128710</v>
       </c>
       <c r="F11" s="0">
         <v>840857</v>
@@ -2162,57 +2177,60 @@
         <v>0</v>
       </c>
       <c r="N11" s="0">
-        <v>0.12720069480237278</v>
+        <v>0.14658198092351921</v>
       </c>
       <c r="O11" s="0">
-        <v>3.6823684439326261</v>
+        <v>10.040570848386702</v>
       </c>
       <c r="P11" s="0">
-        <v>39434.301844012254</v>
+        <v>39665.391289553496</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.086809290225387567</v>
+        <v>0.10625555908532168</v>
       </c>
       <c r="R11" s="0">
-        <v>0.020097243770552574</v>
+        <v>0.03220296077143505</v>
       </c>
       <c r="S11" s="0">
-        <v>0.41217258726697792</v>
+        <v>0.47479439549554325</v>
       </c>
       <c r="T11" s="0">
-        <v>27476.638573350494</v>
+        <v>29527.733505356802</v>
       </c>
       <c r="U11" s="0">
-        <v>0.079592088325880883</v>
+        <v>0.099622921332967629</v>
       </c>
       <c r="V11" s="0">
-        <v>0.054276148739991086</v>
+        <v>0.053757386977839078</v>
       </c>
       <c r="W11" s="0">
-        <v>1.2159335829789759</v>
+        <v>3.2743220490044114</v>
       </c>
       <c r="X11" s="0">
-        <v>8519.6001487114281</v>
+        <v>9354.2932759890809</v>
       </c>
       <c r="Y11" s="0">
-        <v>0.033680613327659481</v>
+        <v>0.03586275879826134</v>
       </c>
       <c r="Z11" s="0">
-        <v>0.010343959954276147</v>
+        <v>0.016219872284280339</v>
       </c>
       <c r="AA11" s="0">
-        <v>0.12208629587811955</v>
+        <v>0.18397030568393979</v>
       </c>
       <c r="AB11" s="0">
-        <v>8134.0262759773432</v>
+        <v>9089.5369168775669</v>
       </c>
       <c r="AC11" s="0">
-        <v>0.027514090147758383</v>
+        <v>0.035250797104967986</v>
+      </c>
+      <c r="AD11" s="0">
+        <v>1.2951670874286996</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>5084.4499999999998</v>
+        <v>2135.4690000000001</v>
       </c>
       <c r="B12" s="0">
         <v>458.39999999999998</v>
@@ -2224,7 +2242,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E12" s="0">
-        <v>66929.199999999997</v>
+        <v>128710</v>
       </c>
       <c r="F12" s="0">
         <v>840857</v>
@@ -2251,57 +2269,60 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0.12736011395389646</v>
+        <v>0.14648829525222462</v>
       </c>
       <c r="O12" s="0">
-        <v>3.6951531358628955</v>
+        <v>9.5880720124105476</v>
       </c>
       <c r="P12" s="0">
-        <v>39658.374010869185</v>
+        <v>39550.418806089867</v>
       </c>
       <c r="Q12" s="0">
-        <v>0.086964591978200834</v>
+        <v>0.10687243582270942</v>
       </c>
       <c r="R12" s="0">
-        <v>0.020922992830375069</v>
+        <v>0.032202960771435044</v>
       </c>
       <c r="S12" s="0">
-        <v>0.41356450621878837</v>
+        <v>0.4747943954955437</v>
       </c>
       <c r="T12" s="0">
-        <v>27360.491266223795</v>
+        <v>29394.185931663855</v>
       </c>
       <c r="U12" s="0">
-        <v>0.080796624926981683</v>
+        <v>0.10000232169705847</v>
       </c>
       <c r="V12" s="0">
-        <v>0.054226981539629793</v>
+        <v>0.053785858143021233</v>
       </c>
       <c r="W12" s="0">
-        <v>1.2190378900838801</v>
+        <v>3.1316092550326009</v>
       </c>
       <c r="X12" s="0">
-        <v>8526.3773286024425</v>
+        <v>9334.0872158868278</v>
       </c>
       <c r="Y12" s="0">
-        <v>0.033830209352795765</v>
+        <v>0.03591014471184141</v>
       </c>
       <c r="Z12" s="0">
-        <v>0.010546184906346543</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA12" s="0">
-        <v>0.12378964226023009</v>
+        <v>0.18397030568393971</v>
       </c>
       <c r="AB12" s="0">
-        <v>8138.8791171229195</v>
+        <v>9074.4513858155187</v>
       </c>
       <c r="AC12" s="0">
-        <v>0.027940663900702205</v>
+        <v>0.035340625015898082</v>
+      </c>
+      <c r="AD12" s="0">
+        <v>1.2731283787892593</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>5084.4499999999998</v>
+        <v>2237.1579999999999</v>
       </c>
       <c r="B13" s="0">
         <v>458.39999999999998</v>
@@ -2313,7 +2334,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E13" s="0">
-        <v>69503.400000000009</v>
+        <v>128710</v>
       </c>
       <c r="F13" s="0">
         <v>840857</v>
@@ -2340,57 +2361,60 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.12751444318615529</v>
+        <v>0.14640972855501308</v>
       </c>
       <c r="O13" s="0">
-        <v>3.7082347217465728</v>
+        <v>9.1578788603129038</v>
       </c>
       <c r="P13" s="0">
-        <v>39879.542664721324</v>
+        <v>39445.795142728493</v>
       </c>
       <c r="Q13" s="0">
-        <v>0.087060170239997514</v>
+        <v>0.10757509503838926</v>
       </c>
       <c r="R13" s="0">
-        <v>0.021686436369371009</v>
+        <v>0.032202960771435044</v>
       </c>
       <c r="S13" s="0">
-        <v>0.41495487030232731</v>
+        <v>0.47479439549554359</v>
       </c>
       <c r="T13" s="0">
-        <v>27254.993888334702</v>
+        <v>29272.203709598965</v>
       </c>
       <c r="U13" s="0">
-        <v>0.08283609664993391</v>
+        <v>0.10027964278938457</v>
       </c>
       <c r="V13" s="0">
-        <v>0.05418042453880953</v>
+        <v>0.053811280031032936</v>
       </c>
       <c r="W13" s="0">
-        <v>1.2223234803296537</v>
+        <v>3.001893050998361</v>
       </c>
       <c r="X13" s="0">
-        <v>8534.883467345202</v>
+        <v>9315.9345349434006</v>
       </c>
       <c r="Y13" s="0">
-        <v>0.033994086463464773</v>
+        <v>0.035953719273601532</v>
       </c>
       <c r="Z13" s="0">
-        <v>0.010751335055810284</v>
+        <v>0.016219872284280332</v>
       </c>
       <c r="AA13" s="0">
-        <v>0.125592882463854</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB13" s="0">
-        <v>8145.7343545922176</v>
+        <v>9062.1584794022747</v>
       </c>
       <c r="AC13" s="0">
-        <v>0.02837353309392417</v>
+        <v>0.035432865498167786</v>
+      </c>
+      <c r="AD13" s="0">
+        <v>1.2531600069827658</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>5084.4499999999998</v>
+        <v>2338.8470000000002</v>
       </c>
       <c r="B14" s="0">
         <v>458.39999999999998</v>
@@ -2402,7 +2426,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E14" s="0">
-        <v>72077.600000000006</v>
+        <v>128710</v>
       </c>
       <c r="F14" s="0">
         <v>840857</v>
@@ -2429,57 +2453,60 @@
         <v>0</v>
       </c>
       <c r="N14" s="0">
-        <v>0.12766700267378095</v>
+        <v>0.14633891491815532</v>
       </c>
       <c r="O14" s="0">
-        <v>3.7216874462808516</v>
+        <v>8.7417536349189842</v>
       </c>
       <c r="P14" s="0">
-        <v>40098.818537036008</v>
+        <v>39356.516379810128</v>
       </c>
       <c r="Q14" s="0">
-        <v>0.087141764308916056</v>
+        <v>0.10835684868422006</v>
       </c>
       <c r="R14" s="0">
-        <v>0.022394163274917566</v>
+        <v>0.032202960771435037</v>
       </c>
       <c r="S14" s="0">
-        <v>0.41634368047213272</v>
+        <v>0.47479439549554403</v>
       </c>
       <c r="T14" s="0">
-        <v>27159.921391686785</v>
+        <v>29158.920761601214</v>
       </c>
       <c r="U14" s="0">
-        <v>0.085181762561918797</v>
+        <v>0.10044910590368575</v>
       </c>
       <c r="V14" s="0">
-        <v>0.0541365336883727</v>
+        <v>0.053833411269807799</v>
       </c>
       <c r="W14" s="0">
-        <v>1.2257965807177933</v>
+        <v>2.8832622918871285</v>
       </c>
       <c r="X14" s="0">
-        <v>8545.3422868146317</v>
+        <v>9299.5086680232216</v>
       </c>
       <c r="Y14" s="0">
-        <v>0.034176972030177173</v>
+        <v>0.035994007200423318</v>
       </c>
       <c r="Z14" s="0">
-        <v>0.010962671686353053</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA14" s="0">
-        <v>0.12750734826764515</v>
+        <v>0.18397030568393971</v>
       </c>
       <c r="AB14" s="0">
-        <v>8154.776569969471</v>
+        <v>9052.0070258916512</v>
       </c>
       <c r="AC14" s="0">
-        <v>0.028815992778444231</v>
+        <v>0.035525678303509091</v>
+      </c>
+      <c r="AD14" s="0">
+        <v>1.2349471163762313</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>5084.4499999999998</v>
+        <v>2440.5360000000001</v>
       </c>
       <c r="B15" s="0">
         <v>458.39999999999998</v>
@@ -2491,7 +2518,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E15" s="0">
-        <v>74651.800000000003</v>
+        <v>128710</v>
       </c>
       <c r="F15" s="0">
         <v>840857</v>
@@ -2518,57 +2545,60 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0.1278214920611648</v>
+        <v>0.14626714307163957</v>
       </c>
       <c r="O15" s="0">
-        <v>3.7355777391673879</v>
+        <v>8.3371828459100055</v>
       </c>
       <c r="P15" s="0">
-        <v>40317.724280617382</v>
+        <v>39286.899550797738</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.087961242204858917</v>
+        <v>0.10920483825623201</v>
       </c>
       <c r="R15" s="0">
-        <v>0.023059876333797882</v>
+        <v>0.032202960771435044</v>
       </c>
       <c r="S15" s="0">
-        <v>0.4177309376823567</v>
+        <v>0.4747943954955432</v>
       </c>
       <c r="T15" s="0">
-        <v>27074.848134007971</v>
+        <v>29051.268620783449</v>
       </c>
       <c r="U15" s="0">
-        <v>0.087539364472693795</v>
+        <v>0.10050570491564785</v>
       </c>
       <c r="V15" s="0">
-        <v>0.054095349576506822</v>
+        <v>0.053852130790503029</v>
       </c>
       <c r="W15" s="0">
-        <v>1.2294633166683755</v>
+        <v>2.7741552710985586</v>
       </c>
       <c r="X15" s="0">
-        <v>8557.9867263817669</v>
+        <v>9284.5606306959035</v>
       </c>
       <c r="Y15" s="0">
-        <v>0.034382604976262575</v>
+        <v>0.036031540997991565</v>
       </c>
       <c r="Z15" s="0">
-        <v>0.011183798231920653</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA15" s="0">
-        <v>0.12954435408788562</v>
+        <v>0.18397030568393974</v>
       </c>
       <c r="AB15" s="0">
-        <v>8166.2048301821133</v>
+        <v>9043.4586758958976</v>
       </c>
       <c r="AC15" s="0">
-        <v>0.029270907655435476</v>
+        <v>0.035617356161179829</v>
+      </c>
+      <c r="AD15" s="0">
+        <v>1.2182324927884474</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>5084.4499999999998</v>
+        <v>2542.2249999999999</v>
       </c>
       <c r="B16" s="0">
         <v>458.39999999999998</v>
@@ -2580,7 +2610,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E16" s="0">
-        <v>77226</v>
+        <v>128710</v>
       </c>
       <c r="F16" s="0">
         <v>840857</v>
@@ -2607,57 +2637,60 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.12798113965989666</v>
+        <v>0.14618559556022187</v>
       </c>
       <c r="O16" s="0">
-        <v>3.7499625847150053</v>
+        <v>7.9465825363564857</v>
       </c>
       <c r="P16" s="0">
-        <v>40537.887082302856</v>
+        <v>39238.723560663791</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.089449300324737052</v>
+        <v>0.11010126450024062</v>
       </c>
       <c r="R16" s="0">
-        <v>0.023698864452809359</v>
+        <v>0.032202960771435044</v>
       </c>
       <c r="S16" s="0">
-        <v>0.41911664288677292</v>
+        <v>0.47479439549554348</v>
       </c>
       <c r="T16" s="0">
-        <v>26999.167242806387</v>
+        <v>28946.385807764553</v>
       </c>
       <c r="U16" s="0">
-        <v>0.089870093309883034</v>
+        <v>0.1004477331678815</v>
       </c>
       <c r="V16" s="0">
-        <v>0.054056898204693005</v>
+        <v>0.05386742621170424</v>
       </c>
       <c r="W16" s="0">
-        <v>1.2333296526355015</v>
+        <v>2.6732889743749531</v>
       </c>
       <c r="X16" s="0">
-        <v>8573.0311719276197</v>
+        <v>9270.8974018488498</v>
       </c>
       <c r="Y16" s="0">
-        <v>0.034612970996186848</v>
+        <v>0.036066828648413991</v>
       </c>
       <c r="Z16" s="0">
-        <v>0.011418055393669588</v>
+        <v>0.016219872284280328</v>
       </c>
       <c r="AA16" s="0">
-        <v>0.13171326953432655</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB16" s="0">
-        <v>8180.2113987301627</v>
+        <v>9036.0711509398916</v>
       </c>
       <c r="AC16" s="0">
-        <v>0.029739933948532703</v>
+        <v>0.035706374051545073</v>
+      </c>
+      <c r="AD16" s="0">
+        <v>1.2028050231032679</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>5084.4499999999998</v>
+        <v>2643.9140000000002</v>
       </c>
       <c r="B17" s="0">
         <v>458.39999999999998</v>
@@ -2669,7 +2702,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E17" s="0">
-        <v>79800.199999999997</v>
+        <v>128710</v>
       </c>
       <c r="F17" s="0">
         <v>840857</v>
@@ -2696,57 +2729,60 @@
         <v>0</v>
       </c>
       <c r="N17" s="0">
-        <v>0.12814939881010223</v>
+        <v>0.14608554405156776</v>
       </c>
       <c r="O17" s="0">
-        <v>3.764888497122044</v>
+        <v>7.5699187570730704</v>
       </c>
       <c r="P17" s="0">
-        <v>40760.566697234404</v>
+        <v>39212.412062889249</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.090866626869916645</v>
+        <v>0.11102495624536222</v>
       </c>
       <c r="R17" s="0">
-        <v>0.024325204201707879</v>
+        <v>0.03220296077143503</v>
       </c>
       <c r="S17" s="0">
-        <v>0.42068899550118116</v>
+        <v>0.47479439549554353</v>
       </c>
       <c r="T17" s="0">
-        <v>26932.112752539906</v>
+        <v>28841.874786779583</v>
       </c>
       <c r="U17" s="0">
-        <v>0.092133569167047541</v>
+        <v>0.10027541296488701</v>
       </c>
       <c r="V17" s="0">
-        <v>0.054021192025432818</v>
+        <v>0.053879381254904345</v>
       </c>
       <c r="W17" s="0">
-        <v>1.2374013426477417</v>
+        <v>2.5796044206295048</v>
       </c>
       <c r="X17" s="0">
-        <v>8590.6423698236558</v>
+        <v>9258.3668496847949</v>
       </c>
       <c r="Y17" s="0">
-        <v>0.034867780958945715</v>
+        <v>0.036100337103144947</v>
       </c>
       <c r="Z17" s="0">
-        <v>0.011667956552742449</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA17" s="0">
-        <v>0.13401964253559986</v>
+        <v>0.18397030568393968</v>
       </c>
       <c r="AB17" s="0">
-        <v>8196.9576654360008</v>
+        <v>9029.4844167546071</v>
       </c>
       <c r="AC17" s="0">
-        <v>0.030222947053016848</v>
+        <v>0.03579141743797639</v>
+      </c>
+      <c r="AD17" s="0">
+        <v>1.1884906815472724</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>5084.4499999999998</v>
+        <v>2745.6030000000001</v>
       </c>
       <c r="B18" s="0">
         <v>458.39999999999998</v>
@@ -2758,7 +2794,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E18" s="0">
-        <v>82374.400000000009</v>
+        <v>128710</v>
       </c>
       <c r="F18" s="0">
         <v>840857</v>
@@ -2785,57 +2821,60 @@
         <v>0</v>
       </c>
       <c r="N18" s="0">
-        <v>0.1283293445923151</v>
+        <v>0.1459589648932122</v>
       </c>
       <c r="O18" s="0">
-        <v>3.7803910426130098</v>
+        <v>7.210255570074084</v>
       </c>
       <c r="P18" s="0">
-        <v>40986.199020307795</v>
+        <v>39207.59282666177</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.09222660608297846</v>
+        <v>0.11195309480476773</v>
       </c>
       <c r="R18" s="0">
-        <v>0.024951972002482142</v>
+        <v>0.032202960771435044</v>
       </c>
       <c r="S18" s="0">
-        <v>0.42325718863255524</v>
+        <v>0.47479439549554381</v>
       </c>
       <c r="T18" s="0">
-        <v>26872.783738153856</v>
+        <v>28735.9214575076</v>
       </c>
       <c r="U18" s="0">
-        <v>0.094291028195676377</v>
+        <v>0.099993356057255497</v>
       </c>
       <c r="V18" s="0">
-        <v>0.053988231173522791</v>
+        <v>0.053888161037854238</v>
       </c>
       <c r="W18" s="0">
-        <v>1.241683889875735</v>
+        <v>2.4922239100965333</v>
       </c>
       <c r="X18" s="0">
-        <v>8610.9130833002637</v>
+        <v>9246.8472768707288</v>
       </c>
       <c r="Y18" s="0">
-        <v>0.035144261863992263</v>
+        <v>0.036132486811855859</v>
       </c>
       <c r="Z18" s="0">
-        <v>0.011934755081035087</v>
+        <v>0.016219872284280335</v>
       </c>
       <c r="AA18" s="0">
-        <v>0.13646367450752206</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB18" s="0">
-        <v>8216.5508174802089</v>
+        <v>9023.4089113320188</v>
       </c>
       <c r="AC18" s="0">
-        <v>0.030717754505929722</v>
+        <v>0.035871392989041559</v>
+      </c>
+      <c r="AD18" s="0">
+        <v>1.1751456793896331</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>5084.4499999999998</v>
+        <v>2847.2920000000004</v>
       </c>
       <c r="B19" s="0">
         <v>458.39999999999998</v>
@@ -2847,7 +2886,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E19" s="0">
-        <v>84948.599999999991</v>
+        <v>128710</v>
       </c>
       <c r="F19" s="0">
         <v>840857</v>
@@ -2874,57 +2913,60 @@
         <v>0</v>
       </c>
       <c r="N19" s="0">
-        <v>0.12852374707949271</v>
+        <v>0.14580002213921481</v>
       </c>
       <c r="O19" s="0">
-        <v>3.7964948091505359</v>
+        <v>6.8653356325938208</v>
       </c>
       <c r="P19" s="0">
-        <v>41214.02849059779</v>
+        <v>39223.061252105508</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.093534421170271331</v>
+        <v>0.11286290509325694</v>
       </c>
       <c r="R19" s="0">
-        <v>0.025598280824977639</v>
+        <v>0.032202960771435044</v>
       </c>
       <c r="S19" s="0">
-        <v>0.42585790137368162</v>
+        <v>0.47479439549554353</v>
       </c>
       <c r="T19" s="0">
-        <v>26820.169656922062</v>
+        <v>28627.307198648836</v>
       </c>
       <c r="U19" s="0">
-        <v>0.096307308047364176</v>
+        <v>0.099791227746493516</v>
       </c>
       <c r="V19" s="0">
-        <v>0.053958004800581459</v>
+        <v>0.05389399549198759</v>
       </c>
       <c r="W19" s="0">
-        <v>1.2461825139486351</v>
+        <v>2.4104170935658966</v>
       </c>
       <c r="X19" s="0">
-        <v>8633.8420536424492</v>
+        <v>9236.2401199440392</v>
       </c>
       <c r="Y19" s="0">
-        <v>0.035437269810299661</v>
+        <v>0.036163652771809232</v>
       </c>
       <c r="Z19" s="0">
-        <v>0.012218202623367303</v>
+        <v>0.016219872284280332</v>
       </c>
       <c r="AA19" s="0">
-        <v>0.13903927874212987</v>
+        <v>0.18397030568393979</v>
       </c>
       <c r="AB19" s="0">
-        <v>8239.0246026269397</v>
+        <v>9017.6152155884574</v>
       </c>
       <c r="AC19" s="0">
-        <v>0.031220113987068514</v>
+        <v>0.035945425419937442</v>
+      </c>
+      <c r="AD19" s="0">
+        <v>1.1626592895943533</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>5084.4499999999998</v>
+        <v>2948.9810000000002</v>
       </c>
       <c r="B20" s="0">
         <v>458.39999999999998</v>
@@ -2936,7 +2978,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E20" s="0">
-        <v>87522.799999999988</v>
+        <v>128710</v>
       </c>
       <c r="F20" s="0">
         <v>840857</v>
@@ -2963,57 +3005,60 @@
         <v>0</v>
       </c>
       <c r="N20" s="0">
-        <v>0.12873507880362675</v>
+        <v>0.14560379427884906</v>
       </c>
       <c r="O20" s="0">
-        <v>3.8132137093438168</v>
+        <v>6.6762525435581654</v>
       </c>
       <c r="P20" s="0">
-        <v>41441.884379750838</v>
+        <v>39257.053204569223</v>
       </c>
       <c r="Q20" s="0">
-        <v>0.094770875457799456</v>
+        <v>0.11373313971362711</v>
       </c>
       <c r="R20" s="0">
-        <v>0.026267511479198397</v>
+        <v>0.032202960771435057</v>
       </c>
       <c r="S20" s="0">
-        <v>0.42848998815781875</v>
+        <v>0.47479439549554359</v>
       </c>
       <c r="T20" s="0">
-        <v>26773.176140477455</v>
+        <v>28515.348871050734</v>
       </c>
       <c r="U20" s="0">
-        <v>0.098153667533761257</v>
+        <v>0.10043011648751092</v>
       </c>
       <c r="V20" s="0">
-        <v>0.053930492425495503</v>
+        <v>0.053897161968912949</v>
       </c>
       <c r="W20" s="0">
-        <v>1.2509021248068142</v>
+        <v>2.3335736678284831</v>
       </c>
       <c r="X20" s="0">
-        <v>8659.322887581191</v>
+        <v>9226.4647319443102</v>
       </c>
       <c r="Y20" s="0">
-        <v>0.035739682691946911</v>
+        <v>0.036194168496658491</v>
       </c>
       <c r="Z20" s="0">
-        <v>0.012516517759836898</v>
+        <v>0.016219872284280332</v>
       </c>
       <c r="AA20" s="0">
-        <v>0.14173385064045865</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB20" s="0">
-        <v>8264.3268984171191</v>
+        <v>9011.9248122089411</v>
       </c>
       <c r="AC20" s="0">
-        <v>0.031724024041069956</v>
+        <v>0.036012844190498654</v>
+      </c>
+      <c r="AD20" s="0">
+        <v>1.1509672353819169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>5084.4499999999998</v>
+        <v>3050.6700000000005</v>
       </c>
       <c r="B21" s="0">
         <v>458.39999999999998</v>
@@ -3025,7 +3070,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E21" s="0">
-        <v>90097</v>
+        <v>128710</v>
       </c>
       <c r="F21" s="0">
         <v>840857</v>
@@ -3052,57 +3097,60 @@
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>0.12896530344819487</v>
+        <v>0.14536779896860752</v>
       </c>
       <c r="O21" s="0">
-        <v>3.830551507247133</v>
+        <v>6.5335503071094241</v>
       </c>
       <c r="P21" s="0">
-        <v>41666.131253389009</v>
+        <v>39307.480113869336</v>
       </c>
       <c r="Q21" s="0">
-        <v>0.095911409206166323</v>
+        <v>0.11454522573337424</v>
       </c>
       <c r="R21" s="0">
-        <v>0.026929728630881687</v>
+        <v>0.032202960771435044</v>
       </c>
       <c r="S21" s="0">
-        <v>0.43117685914294646</v>
+        <v>0.47479439549554348</v>
       </c>
       <c r="T21" s="0">
-        <v>26730.650542742671</v>
+        <v>28399.800169085913</v>
       </c>
       <c r="U21" s="0">
-        <v>0.099805983257574948</v>
+        <v>0.10095090103416846</v>
       </c>
       <c r="V21" s="0">
-        <v>0.053905665231896216</v>
+        <v>0.053897968373151084</v>
       </c>
       <c r="W21" s="0">
-        <v>1.2558473022112959</v>
+        <v>2.2611811760961511</v>
       </c>
       <c r="X21" s="0">
-        <v>8687.1432759860745</v>
+        <v>9217.4545071804187</v>
       </c>
       <c r="Y21" s="0">
-        <v>0.036042995656979944</v>
+        <v>0.036224330477679111</v>
       </c>
       <c r="Z21" s="0">
-        <v>0.012826546614473326</v>
+        <v>0.016219872284280335</v>
       </c>
       <c r="AA21" s="0">
-        <v>0.14452876512186574</v>
+        <v>0.18397030568393974</v>
       </c>
       <c r="AB21" s="0">
-        <v>8292.31582991299</v>
+        <v>9006.201778643519</v>
       </c>
       <c r="AC21" s="0">
-        <v>0.032222219721466105</v>
+        <v>0.036073163681925501</v>
+      </c>
+      <c r="AD21" s="0">
+        <v>1.1399423199061218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>5084.4499999999998</v>
+        <v>3152.3589999999999</v>
       </c>
       <c r="B22" s="0">
         <v>458.39999999999998</v>
@@ -3114,7 +3162,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E22" s="0">
-        <v>92671.199999999997</v>
+        <v>128710</v>
       </c>
       <c r="F22" s="0">
         <v>840857</v>
@@ -3141,57 +3189,60 @@
         <v>0</v>
       </c>
       <c r="N22" s="0">
-        <v>0.12921613714398358</v>
+        <v>0.14509094925301741</v>
       </c>
       <c r="O22" s="0">
-        <v>3.8485024781325379</v>
+        <v>6.391221572634775</v>
       </c>
       <c r="P22" s="0">
-        <v>41881.797573518648</v>
+        <v>39372.111768975476</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.096907929938255033</v>
+        <v>0.11528563119079516</v>
       </c>
       <c r="R22" s="0">
-        <v>0.027562326730851201</v>
+        <v>0.032202960771435057</v>
       </c>
       <c r="S22" s="0">
-        <v>0.43603714215838074</v>
+        <v>0.47479439549554381</v>
       </c>
       <c r="T22" s="0">
-        <v>26691.406638101278</v>
+        <v>28280.741150635396</v>
       </c>
       <c r="U22" s="0">
-        <v>0.10124569340771186</v>
+        <v>0.10135872352458886</v>
       </c>
       <c r="V22" s="0">
-        <v>0.053883487268483098</v>
+        <v>0.053896738024810577</v>
       </c>
       <c r="W22" s="0">
-        <v>1.2610222804712363</v>
+        <v>2.1928068676283337</v>
       </c>
       <c r="X22" s="0">
-        <v>8716.9946173363114</v>
+        <v>9209.153875714077</v>
       </c>
       <c r="Y22" s="0">
-        <v>0.036338027123437026</v>
+        <v>0.03625440187664504</v>
       </c>
       <c r="Z22" s="0">
-        <v>0.01314406869721017</v>
+        <v>0.016219872284280335</v>
       </c>
       <c r="AA22" s="0">
-        <v>0.14740051215396477</v>
+        <v>0.18397030568393974</v>
       </c>
       <c r="AB22" s="0">
-        <v>8322.7650061032255</v>
+        <v>9000.3453802481235</v>
       </c>
       <c r="AC22" s="0">
-        <v>0.032706788455842122</v>
+        <v>0.036126060068993437</v>
+      </c>
+      <c r="AD22" s="0">
+        <v>1.1295153798940138</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>5084.4499999999998</v>
+        <v>3254.0479999999998</v>
       </c>
       <c r="B23" s="0">
         <v>458.39999999999998</v>
@@ -3203,7 +3254,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E23" s="0">
-        <v>95245.399999999994</v>
+        <v>128710</v>
       </c>
       <c r="F23" s="0">
         <v>840857</v>
@@ -3230,57 +3281,60 @@
         <v>0</v>
       </c>
       <c r="N23" s="0">
-        <v>0.12948865503412943</v>
+        <v>0.14477338086986266</v>
       </c>
       <c r="O23" s="0">
-        <v>3.8670521353215932</v>
+        <v>6.2494942602516215</v>
       </c>
       <c r="P23" s="0">
-        <v>42082.86272151395</v>
+        <v>39448.707303389783</v>
       </c>
       <c r="Q23" s="0">
-        <v>0.0977125042275339</v>
+        <v>0.11594367447296071</v>
       </c>
       <c r="R23" s="0">
-        <v>0.028144833493988823</v>
+        <v>0.032202960771435037</v>
       </c>
       <c r="S23" s="0">
-        <v>0.44231586121840882</v>
+        <v>0.47479439549554325</v>
       </c>
       <c r="T23" s="0">
-        <v>26654.247968226304</v>
+        <v>28158.474360169133</v>
       </c>
       <c r="U23" s="0">
-        <v>0.10246058595427274</v>
+        <v>0.10165747451866966</v>
       </c>
       <c r="V23" s="0">
-        <v>0.053863916532312199</v>
+        <v>0.053893797081271629</v>
       </c>
       <c r="W23" s="0">
-        <v>1.2664309383786259</v>
+        <v>2.128082882396785</v>
       </c>
       <c r="X23" s="0">
-        <v>8748.49083087496</v>
+        <v>9201.515899669057</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.036615644584301055</v>
+        <v>0.036284615154667806</v>
       </c>
       <c r="Z23" s="0">
-        <v>0.013464186792558355</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA23" s="0">
-        <v>0.15032230120124324</v>
+        <v>0.18397030568393974</v>
       </c>
       <c r="AB23" s="0">
-        <v>8355.3772194973972</v>
+        <v>8994.2835736143934</v>
       </c>
       <c r="AC23" s="0">
-        <v>0.033169820411952849</v>
+        <v>0.036171347465790947</v>
+      </c>
+      <c r="AD23" s="0">
+        <v>1.1196281482239496</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>5084.4499999999998</v>
+        <v>3355.7370000000001</v>
       </c>
       <c r="B24" s="0">
         <v>458.39999999999998</v>
@@ -3292,7 +3346,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E24" s="0">
-        <v>97819.600000000006</v>
+        <v>128710</v>
       </c>
       <c r="F24" s="0">
         <v>840857</v>
@@ -3319,57 +3373,60 @@
         <v>0</v>
       </c>
       <c r="N24" s="0">
-        <v>0.12978396025506894</v>
+        <v>0.14441721991969381</v>
       </c>
       <c r="O24" s="0">
-        <v>3.8861779843015398</v>
+        <v>6.1087153841509938</v>
       </c>
       <c r="P24" s="0">
-        <v>42263.095387925008</v>
+        <v>39535.103844167104</v>
       </c>
       <c r="Q24" s="0">
-        <v>0.0982703528976583</v>
+        <v>0.11650967484991556</v>
       </c>
       <c r="R24" s="0">
-        <v>0.028655447517864054</v>
+        <v>0.03220296077143503</v>
       </c>
       <c r="S24" s="0">
-        <v>0.44783001171886128</v>
+        <v>0.47479439549554359</v>
       </c>
       <c r="T24" s="0">
-        <v>26617.989446753923</v>
+        <v>28033.43778145167</v>
       </c>
       <c r="U24" s="0">
-        <v>0.10344660998022485</v>
+        <v>0.10185414398463247</v>
       </c>
       <c r="V24" s="0">
-        <v>0.053846905935170823</v>
+        <v>0.053889464884848769</v>
       </c>
       <c r="W24" s="0">
-        <v>1.2720767946741929</v>
+        <v>2.0666942138391802</v>
       </c>
       <c r="X24" s="0">
-        <v>8781.1940625193529</v>
+        <v>9194.5003407232325</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.036867432420225069</v>
+        <v>0.036315173976953143</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.013781739019013663</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA24" s="0">
-        <v>0.15326591906983361</v>
+        <v>0.18397030568393971</v>
       </c>
       <c r="AB24" s="0">
-        <v>8389.8048465348511</v>
+        <v>8987.9674196094547</v>
       </c>
       <c r="AC24" s="0">
-        <v>0.033604017839852861</v>
+        <v>0.036208955167770514</v>
+      </c>
+      <c r="AD24" s="0">
+        <v>1.1102313399323336</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>5084.4499999999998</v>
+        <v>3457.4259999999995</v>
       </c>
       <c r="B25" s="0">
         <v>458.39999999999998</v>
@@ -3381,7 +3438,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E25" s="0">
-        <v>100393.8</v>
+        <v>128710</v>
       </c>
       <c r="F25" s="0">
         <v>840857</v>
@@ -3408,57 +3465,60 @@
         <v>0</v>
       </c>
       <c r="N25" s="0">
-        <v>0.13010228521033906</v>
+        <v>0.14402438270472623</v>
       </c>
       <c r="O25" s="0">
-        <v>3.9058502877954258</v>
+        <v>5.969289994773268</v>
       </c>
       <c r="P25" s="0">
-        <v>42416.175780382488</v>
+        <v>39629.275234617082</v>
       </c>
       <c r="Q25" s="0">
-        <v>0.098527095187462277</v>
+        <v>0.11698143304122413</v>
       </c>
       <c r="R25" s="0">
-        <v>0.029073489871943196</v>
+        <v>0.032202960771435064</v>
       </c>
       <c r="S25" s="0">
-        <v>0.45235558458556835</v>
+        <v>0.47479439549554353</v>
       </c>
       <c r="T25" s="0">
-        <v>26581.476940953085</v>
+        <v>27906.138247549698</v>
       </c>
       <c r="U25" s="0">
-        <v>0.10420437711200692</v>
+        <v>0.1019575252105743</v>
       </c>
       <c r="V25" s="0">
-        <v>0.053832404167275826</v>
+        <v>0.053884047177038312</v>
       </c>
       <c r="W25" s="0">
-        <v>1.2779630095623185</v>
+        <v>2.0083690057370798</v>
       </c>
       <c r="X25" s="0">
-        <v>8814.6442646909727</v>
+        <v>9188.0721418050889</v>
       </c>
       <c r="Y25" s="0">
-        <v>0.037086243324230335</v>
+        <v>0.036346254995115748</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.014091680976815237</v>
+        <v>0.016219872284280339</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.15620361620965179</v>
+        <v>0.18397030568393979</v>
       </c>
       <c r="AB25" s="0">
-        <v>8425.6743747632936</v>
+        <v>8981.3663683450086</v>
       </c>
       <c r="AC25" s="0">
-        <v>0.034003204751086542</v>
+        <v>0.036238907068649164</v>
+      </c>
+      <c r="AD25" s="0">
+        <v>1.1012832492325919</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>5084.4499999999998</v>
+        <v>3559.1149999999998</v>
       </c>
       <c r="B26" s="0">
         <v>458.39999999999998</v>
@@ -3470,7 +3530,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E26" s="0">
-        <v>102968</v>
+        <v>128710</v>
       </c>
       <c r="F26" s="0">
         <v>840857</v>
@@ -3497,57 +3557,60 @@
         <v>0</v>
       </c>
       <c r="N26" s="0">
-        <v>0.13044387541457567</v>
+        <v>0.14359831181594854</v>
       </c>
       <c r="O26" s="0">
-        <v>3.9260328439541237</v>
+        <v>5.8316423924462093</v>
       </c>
       <c r="P26" s="0">
-        <v>42534.745129120216</v>
+        <v>39729.371693744914</v>
       </c>
       <c r="Q26" s="0">
-        <v>0.098440194462356259</v>
+        <v>0.11735837328037746</v>
       </c>
       <c r="R26" s="0">
-        <v>0.029383645984505571</v>
+        <v>0.032202960771435071</v>
       </c>
       <c r="S26" s="0">
-        <v>0.45568432076813242</v>
+        <v>0.47479439549554348</v>
       </c>
       <c r="T26" s="0">
-        <v>26543.604652754097</v>
+        <v>27777.104459544073</v>
       </c>
       <c r="U26" s="0">
-        <v>0.10474041074544821</v>
+        <v>0.10197653771833254</v>
       </c>
       <c r="V26" s="0">
-        <v>0.053820356480640354</v>
+        <v>0.053877831807156454</v>
       </c>
       <c r="W26" s="0">
-        <v>1.2840923928229075</v>
+        <v>1.9528707943693695</v>
       </c>
       <c r="X26" s="0">
-        <v>8848.3893763616998</v>
+        <v>9182.2002891148604</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.037266596716906977</v>
+        <v>0.036378010045414126</v>
       </c>
       <c r="Z26" s="0">
-        <v>0.014389401484355515</v>
+        <v>0.016219872284280332</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.1591098207380906</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB26" s="0">
-        <v>8462.6121047850575</v>
+        <v>8974.464338936823</v>
       </c>
       <c r="AC26" s="0">
-        <v>0.034362698345248924</v>
+        <v>0.03626130370054096</v>
+      </c>
+      <c r="AD26" s="0">
+        <v>1.0927480861148107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>5084.4499999999998</v>
+        <v>3660.8039999999996</v>
       </c>
       <c r="B27" s="0">
         <v>458.39999999999998</v>
@@ -3559,7 +3622,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E27" s="0">
-        <v>105542.20000000001</v>
+        <v>128710</v>
       </c>
       <c r="F27" s="0">
         <v>840857</v>
@@ -3586,57 +3649,60 @@
         <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>0.13080873588366293</v>
+        <v>0.14314236617766976</v>
       </c>
       <c r="O27" s="0">
-        <v>3.9466837923586251</v>
+        <v>5.6961902885061058</v>
       </c>
       <c r="P27" s="0">
-        <v>42613.113173980593</v>
+        <v>39833.747432052107</v>
       </c>
       <c r="Q27" s="0">
-        <v>0.099949806791666873</v>
+        <v>0.11763951909396117</v>
       </c>
       <c r="R27" s="0">
-        <v>0.029586519517747087</v>
+        <v>0.032202960771435009</v>
       </c>
       <c r="S27" s="0">
-        <v>0.45763941148502596</v>
+        <v>0.47479439549554325</v>
       </c>
       <c r="T27" s="0">
-        <v>26503.330213670113</v>
+        <v>27646.856364244039</v>
       </c>
       <c r="U27" s="0">
-        <v>0.10506370556573753</v>
+        <v>0.10192510464011836</v>
       </c>
       <c r="V27" s="0">
-        <v>0.053810705417191851</v>
+        <v>0.053871086392009417</v>
       </c>
       <c r="W27" s="0">
-        <v>1.2904674189285807</v>
+        <v>1.8999923425352587</v>
       </c>
       <c r="X27" s="0">
-        <v>8882.013066924028</v>
+        <v>9176.8570124681737</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.037404908927406104</v>
+        <v>0.036410569034329772</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.014670952389968919</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA27" s="0">
-        <v>0.16196252882183904</v>
+        <v>0.18397030568393968</v>
       </c>
       <c r="AB27" s="0">
-        <v>8500.2681862444661</v>
+        <v>8967.2564908751519</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.034679524207677871</v>
+        <v>0.036276306887218751</v>
+      </c>
+      <c r="AD27" s="0">
+        <v>1.0845950619693738</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>5084.4499999999998</v>
+        <v>3762.4929999999999</v>
       </c>
       <c r="B28" s="0">
         <v>458.39999999999998</v>
@@ -3648,7 +3714,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E28" s="0">
-        <v>108116.40000000001</v>
+        <v>128710</v>
       </c>
       <c r="F28" s="0">
         <v>840857</v>
@@ -3675,57 +3741,60 @@
         <v>0</v>
       </c>
       <c r="N28" s="0">
-        <v>0.13119630777062727</v>
+        <v>0.14265998183538073</v>
       </c>
       <c r="O28" s="0">
-        <v>3.9677564689053959</v>
+        <v>5.5633255725737492</v>
       </c>
       <c r="P28" s="0">
-        <v>42646.791981175811</v>
+        <v>39940.979157583766</v>
       </c>
       <c r="Q28" s="0">
-        <v>0.10229034050115755</v>
+        <v>0.11783220225429576</v>
       </c>
       <c r="R28" s="0">
-        <v>0.029726823208432583</v>
+        <v>0.03220296077143505</v>
       </c>
       <c r="S28" s="0">
-        <v>0.45808845716006297</v>
+        <v>0.47479439549554375</v>
       </c>
       <c r="T28" s="0">
-        <v>26459.687486591793</v>
+        <v>27515.886872290645</v>
       </c>
       <c r="U28" s="0">
-        <v>0.10519013483647786</v>
+        <v>0.10184596716088157</v>
       </c>
       <c r="V28" s="0">
-        <v>0.053803391505070693</v>
+        <v>0.053864057341761543</v>
       </c>
       <c r="W28" s="0">
-        <v>1.2970902492758865</v>
+        <v>1.8495507454946847</v>
       </c>
       <c r="X28" s="0">
-        <v>8915.1576650525585</v>
+        <v>9172.0172625514169</v>
       </c>
       <c r="Y28" s="0">
-        <v>0.037499559039288539</v>
+        <v>0.036444043459676501</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.014933188177946317</v>
+        <v>0.016219872284280335</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.16474428308334912</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB28" s="0">
-        <v>8538.3366977959413</v>
+        <v>8959.7465757308455</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.034952476451018455</v>
+        <v>0.036284126722709885</v>
+      </c>
+      <c r="AD28" s="0">
+        <v>1.0767990610176927</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>5084.4499999999998</v>
+        <v>3864.1819999999998</v>
       </c>
       <c r="B29" s="0">
         <v>458.39999999999998</v>
@@ -3737,7 +3806,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E29" s="0">
-        <v>110690.60000000001</v>
+        <v>128710</v>
       </c>
       <c r="F29" s="0">
         <v>840857</v>
@@ -3764,57 +3833,60 @@
         <v>0</v>
       </c>
       <c r="N29" s="0">
-        <v>0.13160597742644364</v>
+        <v>0.14215430829195494</v>
       </c>
       <c r="O29" s="0">
-        <v>3.9892003312595623</v>
+        <v>5.4333984044615082</v>
       </c>
       <c r="P29" s="0">
-        <v>42632.795008423469</v>
+        <v>40049.875484503566</v>
       </c>
       <c r="Q29" s="0">
-        <v>0.10449684782257666</v>
+        <v>0.117938852985075</v>
       </c>
       <c r="R29" s="0">
-        <v>0.029783684718353805</v>
+        <v>0.032202960771435044</v>
       </c>
       <c r="S29" s="0">
-        <v>0.45695275042927669</v>
+        <v>0.47479439549554348</v>
       </c>
       <c r="T29" s="0">
-        <v>26411.797130873707</v>
+        <v>27384.652174745341</v>
       </c>
       <c r="U29" s="0">
-        <v>0.10513572125900358</v>
+        <v>0.10216954147843479</v>
       </c>
       <c r="V29" s="0">
-        <v>0.053798353941533199</v>
+        <v>0.053856969721502362</v>
       </c>
       <c r="W29" s="0">
-        <v>1.3039627612029348</v>
+        <v>1.8013835281049868</v>
       </c>
       <c r="X29" s="0">
-        <v>8947.5408181384755</v>
+        <v>9167.6583883173025</v>
       </c>
       <c r="Y29" s="0">
-        <v>0.037550809784946404</v>
+        <v>0.036478530259718804</v>
       </c>
       <c r="Z29" s="0">
-        <v>0.015173822799709847</v>
+        <v>0.016219872284280332</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.16744271531372318</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB29" s="0">
-        <v>8576.5703280172365</v>
+        <v>8951.9447645311193</v>
       </c>
       <c r="AC29" s="0">
-        <v>0.035182039984239799</v>
+        <v>0.036285010464292666</v>
+      </c>
+      <c r="AD29" s="0">
+        <v>1.0693559293360255</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>5084.4499999999998</v>
+        <v>3965.8710000000001</v>
       </c>
       <c r="B30" s="0">
         <v>458.39999999999998</v>
@@ -3826,7 +3898,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E30" s="0">
-        <v>113264.79999999999</v>
+        <v>128710</v>
       </c>
       <c r="F30" s="0">
         <v>840857</v>
@@ -3853,57 +3925,60 @@
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>0.13203690985323896</v>
+        <v>0.1416274336469544</v>
       </c>
       <c r="O30" s="0">
-        <v>4.0109619721499499</v>
+        <v>5.3067037567149793</v>
       </c>
       <c r="P30" s="0">
-        <v>42569.819836398427</v>
+        <v>40159.476066033749</v>
       </c>
       <c r="Q30" s="0">
-        <v>0.10655228575748203</v>
+        <v>0.11796604894417757</v>
       </c>
       <c r="R30" s="0">
-        <v>0.029753319708762618</v>
+        <v>0.032202960771435064</v>
       </c>
       <c r="S30" s="0">
-        <v>0.45915944072723142</v>
+        <v>0.47479439549554292</v>
       </c>
       <c r="T30" s="0">
-        <v>26358.875035479599</v>
+        <v>27253.56769339733</v>
       </c>
       <c r="U30" s="0">
-        <v>0.1049187543065368</v>
+        <v>0.10242067086076911</v>
       </c>
       <c r="V30" s="0">
-        <v>0.053795531273565657</v>
+        <v>0.053850027529292806</v>
       </c>
       <c r="W30" s="0">
-        <v>1.3110865829323228</v>
+        <v>1.7553454980018242</v>
       </c>
       <c r="X30" s="0">
-        <v>8978.9654250365656</v>
+        <v>9163.7599345367325</v>
       </c>
       <c r="Y30" s="0">
-        <v>0.037560613766574019</v>
+        <v>0.036514115562779267</v>
       </c>
       <c r="Z30" s="0">
-        <v>0.015391418727613329</v>
+        <v>0.016219872284280339</v>
       </c>
       <c r="AA30" s="0">
-        <v>0.17005068562539546</v>
+        <v>0.18397030568393979</v>
       </c>
       <c r="AB30" s="0">
-        <v>8614.7891630167469</v>
+        <v>8943.8658609874401</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.035370203676955342</v>
+        <v>0.036279232918472029</v>
+      </c>
+      <c r="AD30" s="0">
+        <v>1.0622226869323326</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>5084.4499999999998</v>
+        <v>4067.5599999999999</v>
       </c>
       <c r="B31" s="0">
         <v>458.39999999999998</v>
@@ -3915,7 +3990,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E31" s="0">
-        <v>115838.99999999999</v>
+        <v>128710</v>
       </c>
       <c r="F31" s="0">
         <v>840857</v>
@@ -3942,57 +4017,60 @@
         <v>0</v>
       </c>
       <c r="N31" s="0">
-        <v>0.13248807514561634</v>
+        <v>0.14108110063977752</v>
       </c>
       <c r="O31" s="0">
-        <v>4.0329862293812315</v>
+        <v>5.1834709559117655</v>
       </c>
       <c r="P31" s="0">
-        <v>42458.31089905151</v>
+        <v>40269.039646776291</v>
       </c>
       <c r="Q31" s="0">
-        <v>0.10844466262036717</v>
+        <v>0.11792408932117537</v>
       </c>
       <c r="R31" s="0">
-        <v>0.029644898242081739</v>
+        <v>0.03220296077143505</v>
       </c>
       <c r="S31" s="0">
-        <v>0.46083366792733949</v>
+        <v>0.47479439549554359</v>
       </c>
       <c r="T31" s="0">
-        <v>26300.238759024996</v>
+        <v>27123.007575537627</v>
       </c>
       <c r="U31" s="0">
-        <v>0.10455884621466094</v>
+        <v>0.10259832985829602</v>
       </c>
       <c r="V31" s="0">
-        <v>0.053794862078723839</v>
+        <v>0.053843414105893439</v>
       </c>
       <c r="W31" s="0">
-        <v>1.318463133001583</v>
+        <v>1.7113061682103248</v>
       </c>
       <c r="X31" s="0">
-        <v>9009.323269915938</v>
+        <v>9160.3034895005694</v>
       </c>
       <c r="Y31" s="0">
-        <v>0.037532341110124871</v>
+        <v>0.03655087793185266</v>
       </c>
       <c r="Z31" s="0">
-        <v>0.015585326808178316</v>
+        <v>0.016219872284280328</v>
       </c>
       <c r="AA31" s="0">
-        <v>0.1725660902285438</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB31" s="0">
-        <v>8652.8839447405844</v>
+        <v>8935.5278279876347</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.035520199606064569</v>
+        <v>0.036267087959175714</v>
+      </c>
+      <c r="AD31" s="0">
+        <v>1.0553807363842624</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>5084.4499999999998</v>
+        <v>4169.2489999999998</v>
       </c>
       <c r="B32" s="0">
         <v>458.39999999999998</v>
@@ -4004,7 +4082,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E32" s="0">
-        <v>118413.2</v>
+        <v>128710</v>
       </c>
       <c r="F32" s="0">
         <v>840857</v>
@@ -4031,57 +4109,60 @@
         <v>0</v>
       </c>
       <c r="N32" s="0">
-        <v>0.132958271535637</v>
+        <v>0.14051677428738646</v>
       </c>
       <c r="O32" s="0">
-        <v>4.0552173903548177</v>
+        <v>5.0638572272727824</v>
       </c>
       <c r="P32" s="0">
-        <v>42300.409738418588</v>
+        <v>40378.02155306426</v>
       </c>
       <c r="Q32" s="0">
-        <v>0.11017265624997423</v>
+        <v>0.11781781812734672</v>
       </c>
       <c r="R32" s="0">
-        <v>0.029438610195663996</v>
+        <v>0.032202960771435023</v>
       </c>
       <c r="S32" s="0">
-        <v>0.46264559077575185</v>
+        <v>0.47479439549554425</v>
       </c>
       <c r="T32" s="0">
-        <v>26235.312136830875</v>
+        <v>26993.306384805546</v>
       </c>
       <c r="U32" s="0">
-        <v>0.10407423234787572</v>
+        <v>0.10271370708411655</v>
       </c>
       <c r="V32" s="0">
-        <v>0.053796285639868997</v>
+        <v>0.053837292523508606</v>
       </c>
       <c r="W32" s="0">
-        <v>1.3260936621896053</v>
+        <v>1.6691476095067648</v>
       </c>
       <c r="X32" s="0">
-        <v>9038.5934242310577</v>
+        <v>9157.2725321433445</v>
       </c>
       <c r="Y32" s="0">
-        <v>0.037470465516647622</v>
+        <v>0.036588890822917886</v>
       </c>
       <c r="Z32" s="0">
-        <v>0.015755595721683228</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA32" s="0">
-        <v>0.17499143121742286</v>
+        <v>0.18397030568393968</v>
       </c>
       <c r="AB32" s="0">
-        <v>8690.8147884044192</v>
+        <v>8926.9505708918969</v>
       </c>
       <c r="AC32" s="0">
-        <v>0.035636204777751999</v>
+        <v>0.036248880916042829</v>
+      </c>
+      <c r="AD32" s="0">
+        <v>1.0488137621423155</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>5084.4499999999998</v>
+        <v>4270.9380000000001</v>
       </c>
       <c r="B33" s="0">
         <v>458.39999999999998</v>
@@ -4093,7 +4174,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E33" s="0">
-        <v>120987.39999999999</v>
+        <v>128710</v>
       </c>
       <c r="F33" s="0">
         <v>840857</v>
@@ -4120,57 +4201,60 @@
         <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>0.13344629949339593</v>
+        <v>0.13993617060784785</v>
       </c>
       <c r="O33" s="0">
-        <v>4.0776004766383576</v>
+        <v>4.9479459899545297</v>
       </c>
       <c r="P33" s="0">
-        <v>42099.809026528506</v>
+        <v>40486.042685565953</v>
       </c>
       <c r="Q33" s="0">
-        <v>0.11173024940150122</v>
+        <v>0.11765612624437399</v>
       </c>
       <c r="R33" s="0">
-        <v>0.029505228045880655</v>
+        <v>0.032202960771435085</v>
       </c>
       <c r="S33" s="0">
-        <v>0.46565102843023004</v>
+        <v>0.47479439549554325</v>
       </c>
       <c r="T33" s="0">
-        <v>26163.628225462744</v>
+        <v>26864.762157156205</v>
       </c>
       <c r="U33" s="0">
-        <v>0.10348532748123036</v>
+        <v>0.10276629594761566</v>
       </c>
       <c r="V33" s="0">
-        <v>0.053799742599382847</v>
+        <v>0.053831805913380097</v>
       </c>
       <c r="W33" s="0">
-        <v>1.3339792954879977</v>
+        <v>1.6287626341698545</v>
       </c>
       <c r="X33" s="0">
-        <v>9066.8368167919161</v>
+        <v>9154.6522504547193</v>
       </c>
       <c r="Y33" s="0">
-        <v>0.037380242243037043</v>
+        <v>0.036628224141863723</v>
       </c>
       <c r="Z33" s="0">
-        <v>0.015902867628539308</v>
+        <v>0.016219872284280335</v>
       </c>
       <c r="AA33" s="0">
-        <v>0.17733324485032506</v>
+        <v>0.18397030568393985</v>
       </c>
       <c r="AB33" s="0">
-        <v>8728.6066697938022</v>
+        <v>8918.1549350073965</v>
       </c>
       <c r="AC33" s="0">
-        <v>0.035723038365939618</v>
+        <v>0.03622492168328665</v>
+      </c>
+      <c r="AD33" s="0">
+        <v>1.0425067577127176</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>5084.4499999999998</v>
+        <v>4372.6270000000004</v>
       </c>
       <c r="B34" s="0">
         <v>458.39999999999998</v>
@@ -4182,7 +4266,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E34" s="0">
-        <v>123561.59999999999</v>
+        <v>128710</v>
       </c>
       <c r="F34" s="0">
         <v>840857</v>
@@ -4209,57 +4293,60 @@
         <v>0</v>
       </c>
       <c r="N34" s="0">
-        <v>0.13395075234881643</v>
+        <v>0.13934188735989977</v>
       </c>
       <c r="O34" s="0">
-        <v>4.1000825823131439</v>
+        <v>4.8357500222525598</v>
       </c>
       <c r="P34" s="0">
-        <v>41861.532375811177</v>
+        <v>40592.853259783209</v>
       </c>
       <c r="Q34" s="0">
-        <v>0.11312539309935959</v>
+        <v>0.11745121177419132</v>
       </c>
       <c r="R34" s="0">
-        <v>0.03045451727068851</v>
+        <v>0.03220296077143503</v>
       </c>
       <c r="S34" s="0">
-        <v>0.46867425727148565</v>
+        <v>0.47479439549554342</v>
       </c>
       <c r="T34" s="0">
-        <v>26084.830756753356</v>
+        <v>26737.640293342291</v>
       </c>
       <c r="U34" s="0">
-        <v>0.10281127582493636</v>
+        <v>0.10275912748480194</v>
       </c>
       <c r="V34" s="0">
-        <v>0.053805175572016188</v>
+        <v>0.053827077774639173</v>
       </c>
       <c r="W34" s="0">
-        <v>1.3421210713690999</v>
+        <v>1.5900532458941801</v>
       </c>
       <c r="X34" s="0">
-        <v>9094.1884111123218</v>
+        <v>9152.4293233922781</v>
       </c>
       <c r="Y34" s="0">
-        <v>0.037267404978311283</v>
+        <v>0.03666894493779245</v>
       </c>
       <c r="Z34" s="0">
-        <v>0.016028272877351566</v>
+        <v>0.016219872284280328</v>
       </c>
       <c r="AA34" s="0">
-        <v>0.17960147346128166</v>
+        <v>0.18397030568393968</v>
       </c>
       <c r="AB34" s="0">
-        <v>8766.343021823981</v>
+        <v>8909.1618862582309</v>
       </c>
       <c r="AC34" s="0">
-        <v>0.035785880818414322</v>
+        <v>0.036195518508972527</v>
+      </c>
+      <c r="AD34" s="0">
+        <v>1.0364464305409364</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>5084.4499999999998</v>
+        <v>4474.3160000000007</v>
       </c>
       <c r="B35" s="0">
         <v>458.39999999999998</v>
@@ -4271,7 +4358,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E35" s="0">
-        <v>126135.8</v>
+        <v>128710</v>
       </c>
       <c r="F35" s="0">
         <v>840857</v>
@@ -4298,57 +4385,60 @@
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>0.13446997617269224</v>
+        <v>0.13873604776628568</v>
       </c>
       <c r="O35" s="0">
-        <v>4.1226142299971418</v>
+        <v>4.7272189323733205</v>
       </c>
       <c r="P35" s="0">
-        <v>41591.664736799859</v>
+        <v>40698.295044435348</v>
       </c>
       <c r="Q35" s="0">
-        <v>0.11435840469419777</v>
+        <v>0.11720921291850242</v>
       </c>
       <c r="R35" s="0">
-        <v>0.031353092562254235</v>
+        <v>0.032202960771435057</v>
       </c>
       <c r="S35" s="0">
-        <v>0.47171449860918402</v>
+        <v>0.47479439549554348</v>
       </c>
       <c r="T35" s="0">
-        <v>25998.674268105398</v>
+        <v>26612.177903681099</v>
       </c>
       <c r="U35" s="0">
-        <v>0.1020696289280098</v>
+        <v>0.1026926205977602</v>
       </c>
       <c r="V35" s="0">
-        <v>0.053812529691510048</v>
+        <v>0.053823212355342848</v>
       </c>
       <c r="W35" s="0">
-        <v>1.3505199755210919</v>
+        <v>1.55292931467698</v>
       </c>
       <c r="X35" s="0">
-        <v>9120.8482418960757</v>
+        <v>9150.5916730497975</v>
       </c>
       <c r="Y35" s="0">
-        <v>0.037137900305262643</v>
+        <v>0.036711117375032395</v>
       </c>
       <c r="Z35" s="0">
-        <v>0.016133332389656176</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA35" s="0">
-        <v>0.18180884567667713</v>
+        <v>0.18397030568393968</v>
       </c>
       <c r="AB35" s="0">
-        <v>8804.1585817118448</v>
+        <v>8899.99185386514</v>
       </c>
       <c r="AC35" s="0">
-        <v>0.035830032686535666</v>
+        <v>0.03616097251751238</v>
+      </c>
+      <c r="AD35" s="0">
+        <v>1.030620259773126</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>5084.4499999999998</v>
+        <v>4576.0050000000001</v>
       </c>
       <c r="B36" s="0">
         <v>458.39999999999998</v>
@@ -4387,57 +4477,60 @@
         <v>0</v>
       </c>
       <c r="N36" s="0">
-        <v>0.13500276620928664</v>
+        <v>0.13812163593428145</v>
       </c>
       <c r="O36" s="0">
-        <v>4.145150701836025</v>
+        <v>4.6222498494599602</v>
       </c>
       <c r="P36" s="0">
-        <v>41297.058216790218</v>
+        <v>40802.265641978156</v>
       </c>
       <c r="Q36" s="0">
-        <v>0.11544301503252441</v>
+        <v>0.11693874917856627</v>
       </c>
       <c r="R36" s="0">
         <v>0.03220296077143503</v>
       </c>
       <c r="S36" s="0">
-        <v>0.47479439549554336</v>
+        <v>0.4747943954955432</v>
       </c>
       <c r="T36" s="0">
-        <v>25905.023065936333</v>
+        <v>26488.588275986884</v>
       </c>
       <c r="U36" s="0">
-        <v>0.10127556099345578</v>
+        <v>0.10257068684298259</v>
       </c>
       <c r="V36" s="0">
-        <v>0.053821753064997931</v>
+        <v>0.053820295212206153</v>
       </c>
       <c r="W36" s="0">
-        <v>1.3591769663866329</v>
+        <v>1.5173074509566893</v>
       </c>
       <c r="X36" s="0">
-        <v>9147.0722434027048</v>
+        <v>9149.1282014895241</v>
       </c>
       <c r="Y36" s="0">
-        <v>0.036997669884898006</v>
+        <v>0.036754802172570135</v>
       </c>
       <c r="Z36" s="0">
-        <v>0.016219872284280332</v>
+        <v>0.016219872284280335</v>
       </c>
       <c r="AA36" s="0">
-        <v>0.18397030568393977</v>
+        <v>0.18397030568393974</v>
       </c>
       <c r="AB36" s="0">
-        <v>8842.2323023917688</v>
+        <v>8890.6642218038269</v>
       </c>
       <c r="AC36" s="0">
-        <v>0.035860722281286783</v>
+        <v>0.036121573084210011</v>
+      </c>
+      <c r="AD36" s="0">
+        <v>1.025016979738623</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>5084.4499999999998</v>
+        <v>4677.6939999999995</v>
       </c>
       <c r="B37" s="0">
         <v>458.39999999999998</v>
@@ -4449,7 +4542,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E37" s="0">
-        <v>131284.20000000001</v>
+        <v>128710</v>
       </c>
       <c r="F37" s="0">
         <v>840857</v>
@@ -4476,57 +4569,60 @@
         <v>0</v>
       </c>
       <c r="N37" s="0">
-        <v>0.13554732564260069</v>
+        <v>0.13750104266805496</v>
       </c>
       <c r="O37" s="0">
-        <v>4.1676533001507927</v>
+        <v>4.5206999911290673</v>
       </c>
       <c r="P37" s="0">
-        <v>40985.035932434883</v>
+        <v>40904.687609127228</v>
       </c>
       <c r="Q37" s="0">
-        <v>0.11638443733552854</v>
+        <v>0.11664838589240963</v>
       </c>
       <c r="R37" s="0">
-        <v>0.03300726193453335</v>
+        <v>0.032202960771435044</v>
       </c>
       <c r="S37" s="0">
-        <v>0.47789396367205383</v>
+        <v>0.47479439549554342</v>
       </c>
       <c r="T37" s="0">
-        <v>25803.849166257907</v>
+        <v>26367.065161062546</v>
       </c>
       <c r="U37" s="0">
-        <v>0.10044295283829344</v>
+        <v>0.10239739224949537</v>
       </c>
       <c r="V37" s="0">
-        <v>0.053832797111114293</v>
+        <v>0.053818394043377717</v>
       </c>
       <c r="W37" s="0">
-        <v>1.3680929902561283</v>
+        <v>1.4831100616606741</v>
       </c>
       <c r="X37" s="0">
-        <v>9173.1634464997223</v>
+        <v>9148.0285283957855</v>
       </c>
       <c r="Y37" s="0">
-        <v>0.036852482880974376</v>
+        <v>0.036800055698058477</v>
       </c>
       <c r="Z37" s="0">
-        <v>0.016289951987479144</v>
+        <v>0.016219872284280328</v>
       </c>
       <c r="AA37" s="0">
-        <v>0.18610250978112575</v>
+        <v>0.18397030568393971</v>
       </c>
       <c r="AB37" s="0">
-        <v>8880.7807824492284</v>
+        <v>8881.1969614913432</v>
       </c>
       <c r="AC37" s="0">
-        <v>0.035882963540982422</v>
+        <v>0.036077594211895041</v>
+      </c>
+      <c r="AD37" s="0">
+        <v>1.0196261483107678</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>5084.4499999999998</v>
+        <v>4779.3829999999998</v>
       </c>
       <c r="B38" s="0">
         <v>458.39999999999998</v>
@@ -4538,7 +4634,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E38" s="0">
-        <v>133858.39999999999</v>
+        <v>128710</v>
       </c>
       <c r="F38" s="0">
         <v>840857</v>
@@ -4565,57 +4661,60 @@
         <v>0</v>
       </c>
       <c r="N38" s="0">
-        <v>0.13610212032096564</v>
+        <v>0.13687647949751355</v>
       </c>
       <c r="O38" s="0">
-        <v>4.1900904940019412</v>
+        <v>4.4223997667548254</v>
       </c>
       <c r="P38" s="0">
-        <v>40663.112651181575</v>
+        <v>41005.484190037721</v>
       </c>
       <c r="Q38" s="0">
-        <v>0.11719908052227036</v>
+        <v>0.11634733892999137</v>
       </c>
       <c r="R38" s="0">
-        <v>0.033769492275274628</v>
+        <v>0.032202960771435044</v>
       </c>
       <c r="S38" s="0">
-        <v>0.48250434403943676</v>
+        <v>0.47479439549554392</v>
       </c>
       <c r="T38" s="0">
-        <v>25695.229342112027</v>
+        <v>26247.786599294537</v>
       </c>
       <c r="U38" s="0">
-        <v>0.099583978136295784</v>
+        <v>0.10217651419819196</v>
       </c>
       <c r="V38" s="0">
-        <v>0.053845616762490937</v>
+        <v>0.053817559856384228</v>
       </c>
       <c r="W38" s="0">
-        <v>1.3772689843007073</v>
+        <v>1.4502645740188391</v>
       </c>
       <c r="X38" s="0">
-        <v>9199.4638033244864</v>
+        <v>9147.2827436612715</v>
       </c>
       <c r="Y38" s="0">
-        <v>0.036707815271849277</v>
+        <v>0.036846928874707995</v>
       </c>
       <c r="Z38" s="0">
-        <v>0.016345804760563687</v>
+        <v>0.016219872284280328</v>
       </c>
       <c r="AA38" s="0">
-        <v>0.18822339067561716</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB38" s="0">
-        <v>8920.0523550664093</v>
+        <v>8871.6064009609599</v>
       </c>
       <c r="AC38" s="0">
-        <v>0.035901459670936685</v>
+        <v>0.036029292051769926</v>
+      </c>
+      <c r="AD38" s="0">
+        <v>1.0144380283587948</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>5084.4499999999998</v>
+        <v>4881.0719999999992</v>
       </c>
       <c r="B39" s="0">
         <v>458.39999999999998</v>
@@ -4627,7 +4726,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E39" s="0">
-        <v>136432.60000000001</v>
+        <v>128710</v>
       </c>
       <c r="F39" s="0">
         <v>840857</v>
@@ -4654,57 +4753,60 @@
         <v>0</v>
       </c>
       <c r="N39" s="0">
-        <v>0.13666565874651537</v>
+        <v>0.13625024975112943</v>
       </c>
       <c r="O39" s="0">
-        <v>4.2124389132267677</v>
+        <v>4.3271652747164868</v>
       </c>
       <c r="P39" s="0">
-        <v>40338.746141668918</v>
+        <v>41104.562385576093</v>
       </c>
       <c r="Q39" s="0">
-        <v>0.11789365580248944</v>
+        <v>0.11604245257925046</v>
       </c>
       <c r="R39" s="0">
-        <v>0.034493765515575904</v>
+        <v>0.03220296077143505</v>
       </c>
       <c r="S39" s="0">
-        <v>0.49165889258423168</v>
+        <v>0.47479439549554342</v>
       </c>
       <c r="T39" s="0">
-        <v>25724.333831361258</v>
+        <v>26130.918063214482</v>
       </c>
       <c r="U39" s="0">
-        <v>0.098708910598752003</v>
+        <v>0.10191258548443309</v>
       </c>
       <c r="V39" s="0">
-        <v>0.053860170520395566</v>
+        <v>0.053817828489752945</v>
       </c>
       <c r="W39" s="0">
-        <v>1.3867058667263314</v>
+        <v>1.4187028129088759</v>
       </c>
       <c r="X39" s="0">
-        <v>9226.3466630983003</v>
+        <v>9146.8811854382693</v>
       </c>
       <c r="Y39" s="0">
-        <v>0.036568768938551592</v>
+        <v>0.036895466024212314</v>
       </c>
       <c r="Z39" s="0">
-        <v>0.01638978829353132</v>
+        <v>0.016219872284280342</v>
       </c>
       <c r="AA39" s="0">
-        <v>0.19035177856946936</v>
+        <v>0.18397030568393979</v>
       </c>
       <c r="AB39" s="0">
-        <v>8960.3217535103049</v>
+        <v>8861.9071253602597</v>
       </c>
       <c r="AC39" s="0">
-        <v>0.035920544536487915</v>
+        <v>0.035976903664241874</v>
+      </c>
+      <c r="AD39" s="0">
+        <v>1.0094433939753911</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>5084.4499999999998</v>
+        <v>4982.7609999999995</v>
       </c>
       <c r="B40" s="0">
         <v>458.39999999999998</v>
@@ -4716,7 +4818,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E40" s="0">
-        <v>139006.80000000002</v>
+        <v>128710</v>
       </c>
       <c r="F40" s="0">
         <v>840857</v>
@@ -4743,52 +4845,55 @@
         <v>0</v>
       </c>
       <c r="N40" s="0">
-        <v>0.13723644842421717</v>
+        <v>0.13562497915186536</v>
       </c>
       <c r="O40" s="0">
-        <v>4.23468415954558</v>
+        <v>4.2348093569086718</v>
       </c>
       <c r="P40" s="0">
-        <v>40019.127971400441</v>
+        <v>41201.803193321917</v>
       </c>
       <c r="Q40" s="0">
-        <v>0.1184846753588641</v>
+        <v>0.11573915615622864</v>
       </c>
       <c r="R40" s="0">
-        <v>0.035184949694756468</v>
+        <v>0.03220296077143505</v>
       </c>
       <c r="S40" s="0">
-        <v>0.50411996966111494</v>
+        <v>0.4747943954955437</v>
       </c>
       <c r="T40" s="0">
-        <v>25881.676781824382</v>
+        <v>26016.614765006034</v>
       </c>
       <c r="U40" s="0">
-        <v>0.097824946062560994</v>
+        <v>0.10160975742835314</v>
       </c>
       <c r="V40" s="0">
-        <v>0.053876420357866932</v>
+        <v>0.053819222460208545</v>
       </c>
       <c r="W40" s="0">
-        <v>1.3964045141116008</v>
+        <v>1.3883605157133028</v>
       </c>
       <c r="X40" s="0">
-        <v>9254.2097833494863</v>
+        <v>9146.8142507628891</v>
       </c>
       <c r="Y40" s="0">
-        <v>0.036440021712239513</v>
+        <v>0.03694570374172939</v>
       </c>
       <c r="Z40" s="0">
-        <v>0.016424342611120895</v>
+        <v>0.016219872284280328</v>
       </c>
       <c r="AA40" s="0">
-        <v>0.19250706293000541</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB40" s="0">
-        <v>9001.8851512431502</v>
+        <v>8852.1120001180352</v>
       </c>
       <c r="AC40" s="0">
-        <v>0.035944152355982965</v>
+        <v>0.03592064703722625</v>
+      </c>
+      <c r="AD40" s="0">
+        <v>1.0046334453862678</v>
       </c>
     </row>
     <row r="41">
@@ -4805,7 +4910,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E41" s="0">
-        <v>141581</v>
+        <v>128710</v>
       </c>
       <c r="F41" s="0">
         <v>840857</v>
@@ -4832,57 +4937,60 @@
         <v>0</v>
       </c>
       <c r="N41" s="0">
-        <v>0.1378130107220423</v>
+        <v>0.13500276620928664</v>
       </c>
       <c r="O41" s="0">
-        <v>4.2568214137786509</v>
+        <v>4.145150701836025</v>
       </c>
       <c r="P41" s="0">
-        <v>39711.017505666423</v>
+        <v>41297.058216790218</v>
       </c>
       <c r="Q41" s="0">
-        <v>0.11897887840035162</v>
+        <v>0.11544301503252441</v>
       </c>
       <c r="R41" s="0">
-        <v>0.035847906949135519</v>
+        <v>0.03220296077143503</v>
       </c>
       <c r="S41" s="0">
-        <v>0.51788374394646874</v>
+        <v>0.47479439549554336</v>
       </c>
       <c r="T41" s="0">
-        <v>26324.752432200174</v>
+        <v>25905.023065936333</v>
       </c>
       <c r="U41" s="0">
-        <v>0.096937723388369257</v>
+        <v>0.10127556099345578</v>
       </c>
       <c r="V41" s="0">
-        <v>0.053894331476890212</v>
+        <v>0.053821753064997931</v>
       </c>
       <c r="W41" s="0">
-        <v>1.4063657268716265</v>
+        <v>1.3591769663866329</v>
       </c>
       <c r="X41" s="0">
-        <v>9283.4687070948439</v>
+        <v>9147.0722434027048</v>
       </c>
       <c r="Y41" s="0">
-        <v>0.036325799541450612</v>
+        <v>0.036997669884898006</v>
       </c>
       <c r="Z41" s="0">
-        <v>0.016451952765280647</v>
+        <v>0.016219872284280332</v>
       </c>
       <c r="AA41" s="0">
-        <v>0.19470887880778984</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB41" s="0">
-        <v>9045.0553461043983</v>
+        <v>8842.2323023917688</v>
       </c>
       <c r="AC41" s="0">
-        <v>0.03597580652174806</v>
+        <v>0.035860722281286783</v>
+      </c>
+      <c r="AD41" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>5084.4499999999998</v>
+        <v>5186.1390000000001</v>
       </c>
       <c r="B42" s="0">
         <v>458.39999999999998</v>
@@ -4894,7 +5002,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E42" s="0">
-        <v>144155.20000000001</v>
+        <v>128710</v>
       </c>
       <c r="F42" s="0">
         <v>840857</v>
@@ -4921,57 +5029,60 @@
         <v>0</v>
       </c>
       <c r="N42" s="0">
-        <v>0.13839389447207662</v>
+        <v>0.13438593463228143</v>
       </c>
       <c r="O42" s="0">
-        <v>4.2788558276347946</v>
+        <v>4.0580207797710042</v>
       </c>
       <c r="P42" s="0">
-        <v>39420.618499480603</v>
+        <v>41390.151469930213</v>
       </c>
       <c r="Q42" s="0">
-        <v>0.11939041672943243</v>
+        <v>0.11515864516255263</v>
       </c>
       <c r="R42" s="0">
-        <v>0.036488095774256483</v>
+        <v>0.032202960771435037</v>
       </c>
       <c r="S42" s="0">
-        <v>0.53120255031792774</v>
+        <v>0.4747943954955437</v>
       </c>
       <c r="T42" s="0">
-        <v>26758.339559835775</v>
+        <v>25796.281014047676</v>
       </c>
       <c r="U42" s="0">
-        <v>0.09773391202881257</v>
+        <v>0.10091219498696981</v>
       </c>
       <c r="V42" s="0">
-        <v>0.053913871933985322</v>
+        <v>0.05382542263642278</v>
       </c>
       <c r="W42" s="0">
-        <v>1.4165901845853548</v>
+        <v>1.3310947284736634</v>
       </c>
       <c r="X42" s="0">
-        <v>9314.5503440148314</v>
+        <v>9147.6452620972213</v>
       </c>
       <c r="Y42" s="0">
-        <v>0.036229863066733842</v>
+        <v>0.037051382754945295</v>
       </c>
       <c r="Z42" s="0">
-        <v>0.016475114368863994</v>
+        <v>0.016219872284280328</v>
       </c>
       <c r="AA42" s="0">
-        <v>0.19697680486710051</v>
+        <v>0.18397030568393971</v>
       </c>
       <c r="AB42" s="0">
-        <v>9090.1568929958921</v>
+        <v>8832.2779397745871</v>
       </c>
       <c r="AC42" s="0">
-        <v>0.036018619786818945</v>
+        <v>0.035797313819075707</v>
+      </c>
+      <c r="AD42" s="0">
+        <v>0.99553500536533712</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>5084.4499999999998</v>
+        <v>5287.8280000000004</v>
       </c>
       <c r="B43" s="0">
         <v>458.39999999999998</v>
@@ -4983,7 +5094,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E43" s="0">
-        <v>146729.39999999999</v>
+        <v>128710</v>
       </c>
       <c r="F43" s="0">
         <v>840857</v>
@@ -5010,57 +5121,60 @@
         <v>0</v>
       </c>
       <c r="N43" s="0">
-        <v>0.13897768807173067</v>
+        <v>0.13377682129864982</v>
       </c>
       <c r="O43" s="0">
-        <v>4.3008026966360404</v>
+        <v>3.9732686198196063</v>
       </c>
       <c r="P43" s="0">
-        <v>39153.736195919002</v>
+        <v>41480.885052812504</v>
       </c>
       <c r="Q43" s="0">
-        <v>0.11972442255362264</v>
+        <v>0.11488970897900988</v>
       </c>
       <c r="R43" s="0">
-        <v>0.037111782933034361</v>
+        <v>0.032202960771435037</v>
       </c>
       <c r="S43" s="0">
-        <v>0.54406346455217425</v>
+        <v>0.47479439549554381</v>
       </c>
       <c r="T43" s="0">
-        <v>27182.087042050953</v>
+        <v>25690.518115296563</v>
       </c>
       <c r="U43" s="0">
-        <v>0.099505400717920245</v>
+        <v>0.10052816970847139</v>
       </c>
       <c r="V43" s="0">
-        <v>0.053935012156186936</v>
+        <v>0.053830226826689538</v>
       </c>
       <c r="W43" s="0">
-        <v>1.4270783935642677</v>
+        <v>1.3040594557000349</v>
       </c>
       <c r="X43" s="0">
-        <v>9347.8866343302252</v>
+        <v>9148.5231313830518</v>
       </c>
       <c r="Y43" s="0">
-        <v>0.036155502613871161</v>
+        <v>0.037106850546739602</v>
       </c>
       <c r="Z43" s="0">
-        <v>0.016496300717759961</v>
+        <v>0.016219872284280321</v>
       </c>
       <c r="AA43" s="0">
-        <v>0.19933006513419793</v>
+        <v>0.18397030568393971</v>
       </c>
       <c r="AB43" s="0">
-        <v>9137.5210572173564</v>
+        <v>8822.2577292821479</v>
       </c>
       <c r="AC43" s="0">
-        <v>0.036075300001023207</v>
+        <v>0.035730593298066327</v>
+      </c>
+      <c r="AD43" s="0">
+        <v>0.99123105635745279</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>5084.4499999999998</v>
+        <v>5389.5169999999998</v>
       </c>
       <c r="B44" s="0">
         <v>458.39999999999998</v>
@@ -5072,7 +5186,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E44" s="0">
-        <v>149303.59999999998</v>
+        <v>128710</v>
       </c>
       <c r="F44" s="0">
         <v>840857</v>
@@ -5099,57 +5213,60 @@
         <v>0</v>
       </c>
       <c r="N44" s="0">
-        <v>0.13956302988299735</v>
+        <v>0.13317733407666654</v>
       </c>
       <c r="O44" s="0">
-        <v>4.3226874166207327</v>
+        <v>3.8907635935827809</v>
       </c>
       <c r="P44" s="0">
-        <v>38915.582151163951</v>
+        <v>41569.047383811267</v>
       </c>
       <c r="Q44" s="0">
-        <v>0.11999263887166214</v>
+        <v>0.11463894646759286</v>
       </c>
       <c r="R44" s="0">
-        <v>0.037724891577196884</v>
+        <v>0.032202960771435044</v>
       </c>
       <c r="S44" s="0">
-        <v>0.55645581691777912</v>
+        <v>0.47479439549554348</v>
       </c>
       <c r="T44" s="0">
-        <v>27595.691064650906</v>
+        <v>25587.854503021041</v>
       </c>
       <c r="U44" s="0">
-        <v>0.10114742135369094</v>
+        <v>0.10012558328765642</v>
       </c>
       <c r="V44" s="0">
-        <v>0.053957724375123486</v>
+        <v>0.053836156797251941</v>
       </c>
       <c r="W44" s="0">
-        <v>1.4378306294789791</v>
+        <v>1.2780197587499933</v>
       </c>
       <c r="X44" s="0">
-        <v>9383.9082241069264</v>
+        <v>9149.6953761285677</v>
       </c>
       <c r="Y44" s="0">
-        <v>0.036105537470951556</v>
+        <v>0.0371640711383696</v>
       </c>
       <c r="Z44" s="0">
-        <v>0.016517930880628116</v>
+        <v>0.016219872284280328</v>
       </c>
       <c r="AA44" s="0">
-        <v>0.20178723138759694</v>
+        <v>0.18397030568393971</v>
       </c>
       <c r="AB44" s="0">
-        <v>9187.4805347160909</v>
+        <v>8812.1797057904641</v>
       </c>
       <c r="AC44" s="0">
-        <v>0.036148157577972982</v>
+        <v>0.035660722895570145</v>
+      </c>
+      <c r="AD44" s="0">
+        <v>0.98708080048102231</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>5084.4499999999998</v>
+        <v>5491.2060000000001</v>
       </c>
       <c r="B45" s="0">
         <v>458.39999999999998</v>
@@ -5161,7 +5278,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E45" s="0">
-        <v>151877.79999999999</v>
+        <v>128710</v>
       </c>
       <c r="F45" s="0">
         <v>840857</v>
@@ -5188,57 +5305,60 @@
         <v>0</v>
       </c>
       <c r="N45" s="0">
-        <v>0.14014886907955942</v>
+        <v>0.13258939111803408</v>
       </c>
       <c r="O45" s="0">
-        <v>4.3445452295107447</v>
+        <v>3.8103964628978115</v>
       </c>
       <c r="P45" s="0">
-        <v>38709.681929477279</v>
+        <v>41654.422782362824</v>
       </c>
       <c r="Q45" s="0">
-        <v>0.12019539407085969</v>
+        <v>0.11440823660154757</v>
       </c>
       <c r="R45" s="0">
-        <v>0.038332173883082299</v>
+        <v>0.032202960771435078</v>
       </c>
       <c r="S45" s="0">
-        <v>0.56837305251888792</v>
+        <v>0.47479439549554381</v>
       </c>
       <c r="T45" s="0">
-        <v>27998.829221505737</v>
+        <v>25488.399706634267</v>
       </c>
       <c r="U45" s="0">
-        <v>0.10266014657235434</v>
+        <v>0.099711553989718538</v>
       </c>
       <c r="V45" s="0">
-        <v>0.053981982010359676</v>
+        <v>0.053843201197370474</v>
       </c>
       <c r="W45" s="0">
-        <v>1.4488468780756605</v>
+        <v>1.2529271080407933</v>
       </c>
       <c r="X45" s="0">
-        <v>9423.0381246558245</v>
+        <v>9151.1512393383946</v>
       </c>
       <c r="Y45" s="0">
-        <v>0.036082316979093171</v>
+        <v>0.037223032274407451</v>
       </c>
       <c r="Z45" s="0">
-        <v>0.016542338614874384</v>
+        <v>0.016219872284280339</v>
       </c>
       <c r="AA45" s="0">
-        <v>0.2043659271862559</v>
+        <v>0.18397030568393982</v>
       </c>
       <c r="AB45" s="0">
-        <v>9240.3639487061864</v>
+        <v>8802.0514283316752</v>
       </c>
       <c r="AC45" s="0">
-        <v>0.036239112605123844</v>
+        <v>0.035587858663480819</v>
+      </c>
+      <c r="AD45" s="0">
+        <v>0.98307746595072976</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>5084.4499999999998</v>
+        <v>5592.8950000000004</v>
       </c>
       <c r="B46" s="0">
         <v>458.39999999999998</v>
@@ -5250,7 +5370,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E46" s="0">
-        <v>154452</v>
+        <v>128710</v>
       </c>
       <c r="F46" s="0">
         <v>840857</v>
@@ -5277,57 +5397,60 @@
         <v>0</v>
       </c>
       <c r="N46" s="0">
-        <v>0.14073401028720284</v>
+        <v>0.13201492525687475</v>
       </c>
       <c r="O46" s="0">
-        <v>4.3664207647844133</v>
+        <v>3.7320789954859261</v>
       </c>
       <c r="P46" s="0">
-        <v>38539.460188635348</v>
+        <v>41736.801359282697</v>
       </c>
       <c r="Q46" s="0">
-        <v>0.12034149856248266</v>
+        <v>0.11419868293652015</v>
       </c>
       <c r="R46" s="0">
-        <v>0.038936694513574704</v>
+        <v>0.03220296077143505</v>
       </c>
       <c r="S46" s="0">
-        <v>0.57982128213727158</v>
+        <v>0.4747943954955437</v>
       </c>
       <c r="T46" s="0">
-        <v>28391.100322698305</v>
+        <v>25392.2512322312</v>
       </c>
       <c r="U46" s="0">
-        <v>0.10405162041171154</v>
+        <v>0.099289124074332324</v>
       </c>
       <c r="V46" s="0">
-        <v>0.054007759034233258</v>
+        <v>0.053851347839277232</v>
       </c>
       <c r="W46" s="0">
-        <v>1.4601267770113071</v>
+        <v>1.2287357546226669</v>
       </c>
       <c r="X46" s="0">
-        <v>9465.6853603475938</v>
+        <v>9152.8797406322319</v>
       </c>
       <c r="Y46" s="0">
-        <v>0.036087722277592021</v>
+        <v>0.037283712169488024</v>
       </c>
       <c r="Z46" s="0">
-        <v>0.01657174227305452</v>
+        <v>0.016219872284280335</v>
       </c>
       <c r="AA46" s="0">
-        <v>0.20708253737284374</v>
+        <v>0.18397030568393985</v>
       </c>
       <c r="AB46" s="0">
-        <v>9296.4901769168628</v>
+        <v>8791.8802553042242</v>
       </c>
       <c r="AC46" s="0">
-        <v>0.036349700820973906</v>
+        <v>0.035512153580166621</v>
+      </c>
+      <c r="AD46" s="0">
+        <v>0.97921444663904911</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>5084.4499999999998</v>
+        <v>5694.5840000000007</v>
       </c>
       <c r="B47" s="0">
         <v>458.39999999999998</v>
@@ -5339,7 +5462,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E47" s="0">
-        <v>157026.19999999998</v>
+        <v>128710</v>
       </c>
       <c r="F47" s="0">
         <v>840857</v>
@@ -5366,57 +5489,60 @@
         <v>0</v>
       </c>
       <c r="N47" s="0">
-        <v>0.14131732779080011</v>
+        <v>0.13145582567732428</v>
       </c>
       <c r="O47" s="0">
-        <v>4.3884346753074546</v>
+        <v>3.6557424672979355</v>
       </c>
       <c r="P47" s="0">
-        <v>38407.605492107039</v>
+        <v>41815.988360600182</v>
       </c>
       <c r="Q47" s="0">
-        <v>0.12042794710775889</v>
+        <v>0.11401071640336756</v>
       </c>
       <c r="R47" s="0">
-        <v>0.039539940595515632</v>
+        <v>0.032202960771435044</v>
       </c>
       <c r="S47" s="0">
-        <v>0.59404101163234069</v>
+        <v>0.47479439549554336</v>
       </c>
       <c r="T47" s="0">
-        <v>28771.972206276761</v>
+        <v>25319.484952240477</v>
       </c>
       <c r="U47" s="0">
-        <v>0.10531994833790785</v>
+        <v>0.09886279280146483</v>
       </c>
       <c r="V47" s="0">
-        <v>0.05403502934923473</v>
+        <v>0.05386058500832893</v>
       </c>
       <c r="W47" s="0">
-        <v>1.4716695616423299</v>
+        <v>1.2054026545619041</v>
       </c>
       <c r="X47" s="0">
-        <v>9512.2386297506255</v>
+        <v>9154.8697702730042</v>
       </c>
       <c r="Y47" s="0">
-        <v>0.036123168467449937</v>
+        <v>0.037346080523157486</v>
       </c>
       <c r="Z47" s="0">
-        <v>0.01660821602369008</v>
+        <v>0.016219872284280332</v>
       </c>
       <c r="AA47" s="0">
-        <v>0.20995192854241609</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB47" s="0">
-        <v>9356.1625907507932</v>
+        <v>8781.6735653757696</v>
       </c>
       <c r="AC47" s="0">
-        <v>0.036481078560643164</v>
+        <v>0.035433760034414313</v>
+      </c>
+      <c r="AD47" s="0">
+        <v>0.97548556266646058</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>5084.4499999999998</v>
+        <v>5796.2730000000001</v>
       </c>
       <c r="B48" s="0">
         <v>458.39999999999998</v>
@@ -5428,7 +5554,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E48" s="0">
-        <v>159600.39999999999</v>
+        <v>128710</v>
       </c>
       <c r="F48" s="0">
         <v>840857</v>
@@ -5455,57 +5581,60 @@
         <v>0</v>
       </c>
       <c r="N48" s="0">
-        <v>0.1418979619410568</v>
+        <v>0.13091354174626443</v>
       </c>
       <c r="O48" s="0">
-        <v>4.4106464063260802</v>
+        <v>3.5813353651175568</v>
       </c>
       <c r="P48" s="0">
-        <v>38316.069811926835</v>
+        <v>41891.812310696281</v>
       </c>
       <c r="Q48" s="0">
-        <v>0.12045876096504077</v>
+        <v>0.11384432712609296</v>
       </c>
       <c r="R48" s="0">
-        <v>0.040142033403412811</v>
+        <v>0.032202960771435023</v>
       </c>
       <c r="S48" s="0">
-        <v>0.61141377749111392</v>
+        <v>0.4747943954955437</v>
       </c>
       <c r="T48" s="0">
-        <v>29140.739320090273</v>
+        <v>25326.012601792445</v>
       </c>
       <c r="U48" s="0">
-        <v>0.10646983405001392</v>
+        <v>0.098436502013717786</v>
       </c>
       <c r="V48" s="0">
-        <v>0.05406376620591069</v>
+        <v>0.053870902381356341</v>
       </c>
       <c r="W48" s="0">
-        <v>1.4834740172582452</v>
+        <v>1.1828873859772584</v>
       </c>
       <c r="X48" s="0">
-        <v>9563.0600200562876</v>
+        <v>9157.1102111233722</v>
       </c>
       <c r="Y48" s="0">
-        <v>0.036189607543011551</v>
+        <v>0.037410099898587131</v>
       </c>
       <c r="Z48" s="0">
-        <v>0.016653662777328979</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA48" s="0">
-        <v>0.21298718672231753</v>
+        <v>0.18397030568393971</v>
       </c>
       <c r="AB48" s="0">
-        <v>9419.663302357043</v>
+        <v>8771.4389087703621</v>
       </c>
       <c r="AC48" s="0">
-        <v>0.03663402728261704</v>
+        <v>0.035352831551431742</v>
+      </c>
+      <c r="AD48" s="0">
+        <v>0.9718849760863788</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>5084.4499999999998</v>
+        <v>5897.9619999999995</v>
       </c>
       <c r="B49" s="0">
         <v>458.39999999999998</v>
@@ -5517,7 +5646,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E49" s="0">
-        <v>162174.60000000001</v>
+        <v>128710</v>
       </c>
       <c r="F49" s="0">
         <v>840857</v>
@@ -5544,57 +5673,60 @@
         <v>0</v>
       </c>
       <c r="N49" s="0">
-        <v>0.1424750333079231</v>
+        <v>0.13038947419098057</v>
       </c>
       <c r="O49" s="0">
-        <v>4.4330591890165021</v>
+        <v>3.5088205842789453</v>
       </c>
       <c r="P49" s="0">
-        <v>38266.0664170581</v>
+        <v>41964.131502602148</v>
       </c>
       <c r="Q49" s="0">
-        <v>0.12042929587241268</v>
+        <v>0.11369903345280537</v>
       </c>
       <c r="R49" s="0">
-        <v>0.040742569517750411</v>
+        <v>0.032202960771435078</v>
       </c>
       <c r="S49" s="0">
-        <v>0.62870994014605341</v>
+        <v>0.47479439549554336</v>
       </c>
       <c r="T49" s="0">
-        <v>29496.491300472506</v>
+        <v>25330.292290413796</v>
       </c>
       <c r="U49" s="0">
-        <v>0.10750090239677787</v>
+        <v>0.098012066742645551</v>
       </c>
       <c r="V49" s="0">
-        <v>0.054093941684787351</v>
+        <v>0.053882291560493289</v>
       </c>
       <c r="W49" s="0">
-        <v>1.4955384398106941</v>
+        <v>1.1611520519099003</v>
       </c>
       <c r="X49" s="0">
-        <v>9618.4788307280596</v>
+        <v>9159.5900788957715</v>
       </c>
       <c r="Y49" s="0">
-        <v>0.036287532777179381</v>
+        <v>0.037475727382902314</v>
       </c>
       <c r="Z49" s="0">
-        <v>0.016709789237214043</v>
+        <v>0.016219872284280335</v>
       </c>
       <c r="AA49" s="0">
-        <v>0.21619937872551093</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB49" s="0">
-        <v>9487.2475250063508</v>
+        <v>8761.1840825456584</v>
       </c>
       <c r="AC49" s="0">
-        <v>0.036808958539295521</v>
+        <v>0.03526952367022327</v>
+      </c>
+      <c r="AD49" s="0">
+        <v>0.96840711079775876</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>5084.4499999999998</v>
+        <v>5999.6509999999998</v>
       </c>
       <c r="B50" s="0">
         <v>458.39999999999998</v>
@@ -5606,7 +5738,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E50" s="0">
-        <v>164748.80000000002</v>
+        <v>128710</v>
       </c>
       <c r="F50" s="0">
         <v>840857</v>
@@ -5633,57 +5765,60 @@
         <v>0</v>
       </c>
       <c r="N50" s="0">
-        <v>0.14304756395385332</v>
+        <v>0.12988476955138148</v>
       </c>
       <c r="O50" s="0">
-        <v>4.4557467032509699</v>
+        <v>3.4381895051584461</v>
       </c>
       <c r="P50" s="0">
-        <v>38258.063642032605</v>
+        <v>42032.838580323325</v>
       </c>
       <c r="Q50" s="0">
-        <v>0.12033876041677008</v>
+        <v>0.11357365697903976</v>
       </c>
       <c r="R50" s="0">
-        <v>0.041341335245407861</v>
+        <v>0.032202960771435064</v>
       </c>
       <c r="S50" s="0">
-        <v>0.64590854157924837</v>
+        <v>0.47479439549554375</v>
       </c>
       <c r="T50" s="0">
-        <v>29838.093245989676</v>
+        <v>25332.421770880694</v>
       </c>
       <c r="U50" s="0">
-        <v>0.10841097772025982</v>
+        <v>0.09759310716497939</v>
       </c>
       <c r="V50" s="0">
-        <v>0.05412552626047553</v>
+        <v>0.053894746259179296</v>
       </c>
       <c r="W50" s="0">
-        <v>1.5078606066991027</v>
+        <v>1.1401611660250945</v>
       </c>
       <c r="X50" s="0">
-        <v>9678.7855838333562</v>
+        <v>9162.2986698834557</v>
       </c>
       <c r="Y50" s="0">
-        <v>0.036416985417277628</v>
+        <v>0.037542916420841087</v>
       </c>
       <c r="Z50" s="0">
-        <v>0.016778083524020816</v>
+        <v>0.016219872284280346</v>
       </c>
       <c r="AA50" s="0">
-        <v>0.21959734360497832</v>
+        <v>0.18397030568393985</v>
       </c>
       <c r="AB50" s="0">
-        <v>9559.1381618381729</v>
+        <v>8750.9171321404719</v>
       </c>
       <c r="AC50" s="0">
-        <v>0.037005920341781927</v>
+        <v>0.035183993980951712</v>
+      </c>
+      <c r="AD50" s="0">
+        <v>0.96504681242171431</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>5084.4499999999998</v>
+        <v>6101.3399999999992</v>
       </c>
       <c r="B51" s="0">
         <v>458.39999999999998</v>
@@ -5695,7 +5830,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E51" s="0">
-        <v>167323</v>
+        <v>128710</v>
       </c>
       <c r="F51" s="0">
         <v>840857</v>
@@ -5722,57 +5857,60 @@
         <v>0</v>
       </c>
       <c r="N51" s="0">
-        <v>0.14361507644594046</v>
+        <v>0.1294003722246844</v>
       </c>
       <c r="O51" s="0">
-        <v>4.4787867386857663</v>
+        <v>3.3694931142274474</v>
       </c>
       <c r="P51" s="0">
-        <v>38291.773962942323</v>
+        <v>42097.863141506248</v>
       </c>
       <c r="Q51" s="0">
-        <v>0.12018211698621173</v>
+        <v>0.11346708367870675</v>
       </c>
       <c r="R51" s="0">
-        <v>0.041937661989445346</v>
+        <v>0.032202960771435057</v>
       </c>
       <c r="S51" s="0">
-        <v>0.66298221325788342</v>
+        <v>0.47479439549554314</v>
       </c>
       <c r="T51" s="0">
-        <v>30164.177885732854</v>
+        <v>25332.476068316631</v>
       </c>
       <c r="U51" s="0">
-        <v>0.10919906760661904</v>
+        <v>0.09718130235784124</v>
       </c>
       <c r="V51" s="0">
-        <v>0.05415848846045352</v>
+        <v>0.053908262198955607</v>
       </c>
       <c r="W51" s="0">
-        <v>1.520437758680899</v>
+        <v>1.1198815214337705</v>
       </c>
       <c r="X51" s="0">
-        <v>9744.2263267425715</v>
+        <v>9165.2257051971319</v>
       </c>
       <c r="Y51" s="0">
-        <v>0.036577564617214786</v>
+        <v>0.037611618699542264</v>
       </c>
       <c r="Z51" s="0">
-        <v>0.016859795872279353</v>
+        <v>0.016219872284280332</v>
       </c>
       <c r="AA51" s="0">
-        <v>0.2231875204927847</v>
+        <v>0.18397030568393979</v>
       </c>
       <c r="AB51" s="0">
-        <v>9635.5207506356965</v>
+        <v>8740.6462888429796</v>
       </c>
       <c r="AC51" s="0">
-        <v>0.037224605867183284</v>
+        <v>0.035096401417696925</v>
+      </c>
+      <c r="AD51" s="0">
+        <v>0.96179919444805817</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>5084.4499999999998</v>
+        <v>6203.0289999999995</v>
       </c>
       <c r="B52" s="0">
         <v>458.39999999999998</v>
@@ -5784,7 +5922,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E52" s="0">
-        <v>169897.20000000001</v>
+        <v>128710</v>
       </c>
       <c r="F52" s="0">
         <v>840857</v>
@@ -5811,57 +5949,60 @@
         <v>0</v>
       </c>
       <c r="N52" s="0">
-        <v>0.14417686524703577</v>
+        <v>0.12893703692616773</v>
       </c>
       <c r="O52" s="0">
-        <v>4.5022595789613611</v>
+        <v>3.3026250381969895</v>
       </c>
       <c r="P52" s="0">
-        <v>38366.139566770195</v>
+        <v>42159.172448984747</v>
       </c>
       <c r="Q52" s="0">
-        <v>0.11995366935584181</v>
+        <v>0.11337806883664911</v>
       </c>
       <c r="R52" s="0">
-        <v>0.042530717784553716</v>
+        <v>0.032202960771435037</v>
       </c>
       <c r="S52" s="0">
-        <v>0.67989637730700259</v>
+        <v>0.47479439549554348</v>
       </c>
       <c r="T52" s="0">
-        <v>30473.149387486385</v>
+        <v>25330.513470109152</v>
       </c>
       <c r="U52" s="0">
-        <v>0.10986326009699592</v>
+        <v>0.096777480657943366</v>
       </c>
       <c r="V52" s="0">
-        <v>0.054192794625500945</v>
+        <v>0.053922836788714484</v>
       </c>
       <c r="W52" s="0">
-        <v>1.5332665935102603</v>
+        <v>1.1002820454490705</v>
       </c>
       <c r="X52" s="0">
-        <v>9814.9973650712291</v>
+        <v>9168.3614613726058</v>
       </c>
       <c r="Y52" s="0">
-        <v>0.036768441526052888</v>
+        <v>0.037681785961484859</v>
       </c>
       <c r="Z52" s="0">
-        <v>0.016955922954736545</v>
+        <v>0.016219872284280335</v>
       </c>
       <c r="AA52" s="0">
-        <v>0.22697381883670403</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB52" s="0">
-        <v>9716.5389068193545</v>
+        <v>8730.3798581644078</v>
       </c>
       <c r="AC52" s="0">
-        <v>0.037464365401804832</v>
+        <v>0.035006904967297872</v>
+      </c>
+      <c r="AD52" s="0">
+        <v>0.95865965908441653</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>5084.4499999999998</v>
+        <v>6304.7179999999998</v>
       </c>
       <c r="B53" s="0">
         <v>458.39999999999998</v>
@@ -5873,7 +6014,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E53" s="0">
-        <v>172471.40000000002</v>
+        <v>128710</v>
       </c>
       <c r="F53" s="0">
         <v>840857</v>
@@ -5900,57 +6041,60 @@
         <v>0</v>
       </c>
       <c r="N53" s="0">
-        <v>0.14473223803190166</v>
+        <v>0.12849527098041222</v>
       </c>
       <c r="O53" s="0">
-        <v>4.526246218751858</v>
+        <v>3.2375766639971584</v>
       </c>
       <c r="P53" s="0">
-        <v>38479.317046562166</v>
+        <v>42216.77046755045</v>
       </c>
       <c r="Q53" s="0">
-        <v>0.11965034073586145</v>
+        <v>0.11330531867242294</v>
       </c>
       <c r="R53" s="0">
-        <v>0.043119534719331623</v>
+        <v>0.032202960771435057</v>
       </c>
       <c r="S53" s="0">
-        <v>0.69660877027557389</v>
+        <v>0.47479439549554359</v>
       </c>
       <c r="T53" s="0">
-        <v>30763.198152513931</v>
+        <v>25326.581356955652</v>
       </c>
       <c r="U53" s="0">
-        <v>0.11039722624719008</v>
+        <v>0.096382741022358609</v>
       </c>
       <c r="V53" s="0">
-        <v>0.054228408773729274</v>
+        <v>0.053938468662163244</v>
       </c>
       <c r="W53" s="0">
-        <v>1.5463432714946639</v>
+        <v>1.0813336447433142</v>
       </c>
       <c r="X53" s="0">
-        <v>9891.2405939601831</v>
+        <v>9171.6968788892755</v>
       </c>
       <c r="Y53" s="0">
-        <v>0.036988378375315115</v>
+        <v>0.037753371633836734</v>
       </c>
       <c r="Z53" s="0">
-        <v>0.017067196434395634</v>
+        <v>0.016219872284280328</v>
       </c>
       <c r="AA53" s="0">
-        <v>0.2309575365152039</v>
+        <v>0.18397030568393971</v>
       </c>
       <c r="AB53" s="0">
-        <v>9802.2904193425657</v>
+        <v>8720.1260770606405</v>
       </c>
       <c r="AC53" s="0">
-        <v>0.037724222313167098</v>
+        <v>0.034915661994038866</v>
+      </c>
+      <c r="AD53" s="0">
+        <v>0.95562392895137582</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>5084.4499999999998</v>
+        <v>6406.4070000000002</v>
       </c>
       <c r="B54" s="0">
         <v>458.39999999999998</v>
@@ -5962,7 +6106,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E54" s="0">
-        <v>175045.60000000001</v>
+        <v>128710</v>
       </c>
       <c r="F54" s="0">
         <v>840857</v>
@@ -5989,57 +6133,60 @@
         <v>0</v>
       </c>
       <c r="N54" s="0">
-        <v>0.14528069922975151</v>
+        <v>0.12807569967281868</v>
       </c>
       <c r="O54" s="0">
-        <v>4.5508264374146492</v>
+        <v>3.1802748041067517</v>
       </c>
       <c r="P54" s="0">
-        <v>38628.664894885078</v>
+        <v>42270.695531148667</v>
       </c>
       <c r="Q54" s="0">
-        <v>0.1192632454018587</v>
+        <v>0.11324755723702623</v>
       </c>
       <c r="R54" s="0">
-        <v>0.043703437925660164</v>
+        <v>0.032202960771435057</v>
       </c>
       <c r="S54" s="0">
-        <v>0.71306929234758454</v>
+        <v>0.47479439549554353</v>
       </c>
       <c r="T54" s="0">
-        <v>31032.3256079561</v>
+        <v>25320.721366110498</v>
       </c>
       <c r="U54" s="0">
-        <v>0.11079575826268276</v>
+        <v>0.095998274725248689</v>
       </c>
       <c r="V54" s="0">
-        <v>0.054265292565856153</v>
+        <v>0.053955157145548285</v>
       </c>
       <c r="W54" s="0">
-        <v>1.559663432801587</v>
+        <v>1.0630090461535562</v>
       </c>
       <c r="X54" s="0">
-        <v>9973.0396163826554</v>
+        <v>9175.223642376217</v>
       </c>
       <c r="Y54" s="0">
-        <v>0.037235753244860621</v>
+        <v>0.037826332183101732</v>
       </c>
       <c r="Z54" s="0">
-        <v>0.01719407633876649</v>
+        <v>0.016219872284280342</v>
       </c>
       <c r="AA54" s="0">
-        <v>0.23513733033733894</v>
+        <v>0.18397030568393979</v>
       </c>
       <c r="AB54" s="0">
-        <v>9892.8241588660803</v>
+        <v>8709.8929585627466</v>
       </c>
       <c r="AC54" s="0">
-        <v>0.038002893686754032</v>
+        <v>0.034822826392378325</v>
+      </c>
+      <c r="AD54" s="0">
+        <v>0.95268801599337127</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>5084.4499999999998</v>
+        <v>6508.0959999999995</v>
       </c>
       <c r="B55" s="0">
         <v>458.39999999999998</v>
@@ -6051,7 +6198,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E55" s="0">
-        <v>177619.80000000002</v>
+        <v>128710</v>
       </c>
       <c r="F55" s="0">
         <v>840857</v>
@@ -6078,57 +6225,60 @@
         <v>0</v>
       </c>
       <c r="N55" s="0">
-        <v>0.14582179907151804</v>
+        <v>0.12767864153238148</v>
       </c>
       <c r="O55" s="0">
-        <v>4.5760767636522601</v>
+        <v>3.1285024775390227</v>
       </c>
       <c r="P55" s="0">
-        <v>38810.738052303073</v>
+        <v>42321.016993198027</v>
       </c>
       <c r="Q55" s="0">
-        <v>0.11878725972302318</v>
+        <v>0.11320357832414259</v>
       </c>
       <c r="R55" s="0">
-        <v>0.044282168602737086</v>
+        <v>0.032202960771435044</v>
       </c>
       <c r="S55" s="0">
-        <v>0.72922017412314066</v>
+        <v>0.4747943954955437</v>
       </c>
       <c r="T55" s="0">
-        <v>31278.377738908388</v>
+        <v>25312.973565982255</v>
       </c>
       <c r="U55" s="0">
-        <v>0.11275558613229021</v>
+        <v>0.095624463158678064</v>
       </c>
       <c r="V55" s="0">
-        <v>0.054303405365914728</v>
+        <v>0.053972901718029362</v>
       </c>
       <c r="W55" s="0">
-        <v>1.5732222260460929</v>
+        <v>1.045282638407776</v>
       </c>
       <c r="X55" s="0">
-        <v>10060.416840666083</v>
+        <v>9178.9342287836462</v>
       </c>
       <c r="Y55" s="0">
-        <v>0.037508590927780493</v>
+        <v>0.037900628130572364</v>
       </c>
       <c r="Z55" s="0">
-        <v>0.017336749767238837</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA55" s="0">
-        <v>0.23950924187071287</v>
+        <v>0.18397030568393971</v>
       </c>
       <c r="AB55" s="0">
-        <v>9988.1379486255046</v>
+        <v>8699.688140986349</v>
       </c>
       <c r="AC55" s="0">
-        <v>0.038298816034802188</v>
+        <v>0.034728546768766778</v>
+      </c>
+      <c r="AD55" s="0">
+        <v>0.94984815542233048</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>5084.4499999999998</v>
+        <v>6609.7849999999999</v>
       </c>
       <c r="B56" s="0">
         <v>458.39999999999998</v>
@@ -6140,7 +6290,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E56" s="0">
-        <v>180194.00000000003</v>
+        <v>128710</v>
       </c>
       <c r="F56" s="0">
         <v>840857</v>
@@ -6167,57 +6317,60 @@
         <v>0</v>
       </c>
       <c r="N56" s="0">
-        <v>0.14635513098393615</v>
+        <v>0.12730437010011969</v>
       </c>
       <c r="O56" s="0">
-        <v>4.602068376641304</v>
+        <v>3.0773042241605868</v>
       </c>
       <c r="P56" s="0">
-        <v>39021.29388921013</v>
+        <v>42367.831221137902</v>
       </c>
       <c r="Q56" s="0">
-        <v>0.11821682138109733</v>
+        <v>0.11317228295107447</v>
       </c>
       <c r="R56" s="0">
-        <v>0.044855498612322867</v>
+        <v>0.03220296077143505</v>
       </c>
       <c r="S56" s="0">
-        <v>0.74499644367583884</v>
+        <v>0.47479439549554342</v>
       </c>
       <c r="T56" s="0">
-        <v>31499.085901155624</v>
+        <v>25303.379488262624</v>
       </c>
       <c r="U56" s="0">
-        <v>0.11476731051305766</v>
+        <v>0.095260549915924198</v>
       </c>
       <c r="V56" s="0">
-        <v>0.054342704388975198</v>
+        <v>0.053991701513738194</v>
       </c>
       <c r="W56" s="0">
-        <v>1.5870143474349245</v>
+        <v>1.0281303194841236</v>
       </c>
       <c r="X56" s="0">
-        <v>10153.331730389691</v>
+        <v>9182.8219222830139</v>
       </c>
       <c r="Y56" s="0">
-        <v>0.037804599958756256</v>
+        <v>0.037976224693191674</v>
       </c>
       <c r="Z56" s="0">
-        <v>0.017495135264576488</v>
+        <v>0.016219872284280339</v>
       </c>
       <c r="AA56" s="0">
-        <v>0.24406677934028559</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB56" s="0">
-        <v>10088.177521491591</v>
+        <v>8689.5187560065424</v>
       </c>
       <c r="AC56" s="0">
-        <v>0.038610176177415106</v>
+        <v>0.034632964824221214</v>
+      </c>
+      <c r="AD56" s="0">
+        <v>0.94710076578653468</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>5084.4499999999998</v>
+        <v>6711.4740000000002</v>
       </c>
       <c r="B57" s="0">
         <v>458.39999999999998</v>
@@ -6229,7 +6382,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E57" s="0">
-        <v>182768.20000000001</v>
+        <v>128710</v>
       </c>
       <c r="F57" s="0">
         <v>840857</v>
@@ -6256,57 +6409,60 @@
         <v>0</v>
       </c>
       <c r="N57" s="0">
-        <v>0.14688032869064127</v>
+        <v>0.12695307476397766</v>
       </c>
       <c r="O57" s="0">
-        <v>4.6288649993532385</v>
+        <v>3.0267211235500309</v>
       </c>
       <c r="P57" s="0">
-        <v>39255.313687636022</v>
+        <v>42411.257271921349</v>
       </c>
       <c r="Q57" s="0">
-        <v>0.1175435175096928</v>
+        <v>0.1131527035699447</v>
       </c>
       <c r="R57" s="0">
-        <v>0.045423681347867985</v>
+        <v>0.032202960771435037</v>
       </c>
       <c r="S57" s="0">
-        <v>0.76032666861767928</v>
+        <v>0.47479439549554353</v>
       </c>
       <c r="T57" s="0">
-        <v>31692.113320845376</v>
+        <v>25291.984000839377</v>
       </c>
       <c r="U57" s="0">
-        <v>0.1166978780797196</v>
+        <v>0.09490622615586855</v>
       </c>
       <c r="V57" s="0">
-        <v>0.054383144925614905</v>
+        <v>0.054011554899694711</v>
       </c>
       <c r="W57" s="0">
-        <v>1.6010340895219737</v>
+        <v>1.0115293533761516</v>
       </c>
       <c r="X57" s="0">
-        <v>10251.680336339976</v>
+        <v>9186.880796912219</v>
       </c>
       <c r="Y57" s="0">
-        <v>0.038121215437056447</v>
+        <v>0.03805309204291539</v>
       </c>
       <c r="Z57" s="0">
-        <v>0.017668892925514022</v>
+        <v>0.016219872284280332</v>
       </c>
       <c r="AA57" s="0">
-        <v>0.24880105359172444</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB57" s="0">
-        <v>10192.836640443151</v>
+        <v>8679.3913260961872</v>
       </c>
       <c r="AC57" s="0">
-        <v>0.038934947019998216</v>
+        <v>0.034536214068148316</v>
+      </c>
+      <c r="AD57" s="0">
+        <v>0.94444249797545288</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>5084.4499999999998</v>
+        <v>6813.1630000000005</v>
       </c>
       <c r="B58" s="0">
         <v>458.39999999999998</v>
@@ -6318,7 +6474,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E58" s="0">
-        <v>185342.40000000002</v>
+        <v>128710</v>
       </c>
       <c r="F58" s="0">
         <v>840857</v>
@@ -6345,57 +6501,60 @@
         <v>0</v>
       </c>
       <c r="N58" s="0">
-        <v>0.14739706032418179</v>
+        <v>0.12662493040341138</v>
       </c>
       <c r="O58" s="0">
-        <v>4.6572026850024901</v>
+        <v>2.9772010365287969</v>
       </c>
       <c r="P58" s="0">
-        <v>39507.043003046849</v>
+        <v>42451.432537020606</v>
       </c>
       <c r="Q58" s="0">
-        <v>0.11676432334237238</v>
+        <v>0.11314401657409454</v>
       </c>
       <c r="R58" s="0">
-        <v>0.045987189906157681</v>
+        <v>0.03220296077143505</v>
       </c>
       <c r="S58" s="0">
-        <v>0.77513394144192049</v>
+        <v>0.47479439549554409</v>
       </c>
       <c r="T58" s="0">
-        <v>32176.540402387294</v>
+        <v>25278.836108189393</v>
       </c>
       <c r="U58" s="0">
-        <v>0.11853692328958183</v>
+        <v>0.094560963626237948</v>
       </c>
       <c r="V58" s="0">
-        <v>0.054424680631677616</v>
+        <v>0.05403245914928121</v>
       </c>
       <c r="W58" s="0">
-        <v>1.6152753984321613</v>
+        <v>0.99545823891620644</v>
       </c>
       <c r="X58" s="0">
-        <v>10355.296174593015</v>
+        <v>9191.1056698584744</v>
       </c>
       <c r="Y58" s="0">
-        <v>0.038455646803571351</v>
+        <v>0.038131205203152579</v>
       </c>
       <c r="Z58" s="0">
-        <v>0.017857439962413388</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA58" s="0">
-        <v>0.25370096304081952</v>
+        <v>0.18397030568393971</v>
       </c>
       <c r="AB58" s="0">
-        <v>10301.958396215687</v>
+        <v>8669.3116977001828</v>
       </c>
       <c r="AC58" s="0">
-        <v>0.039270927532764947</v>
+        <v>0.034438418947363957</v>
+      </c>
+      <c r="AD58" s="0">
+        <v>0.94187018174560322</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>5084.4499999999998</v>
+        <v>6914.851999999999</v>
       </c>
       <c r="B59" s="0">
         <v>458.39999999999998</v>
@@ -6407,7 +6566,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E59" s="0">
-        <v>187916.60000000001</v>
+        <v>128710</v>
       </c>
       <c r="F59" s="0">
         <v>840857</v>
@@ -6434,57 +6593,60 @@
         <v>0</v>
       </c>
       <c r="N59" s="0">
-        <v>0.1479050262719345</v>
+        <v>0.12631990537289825</v>
       </c>
       <c r="O59" s="0">
-        <v>4.7036450853720098</v>
+        <v>2.9462432004104055</v>
       </c>
       <c r="P59" s="0">
-        <v>39770.053304009372</v>
+        <v>42488.508583643757</v>
       </c>
       <c r="Q59" s="0">
-        <v>0.11587248002448255</v>
+        <v>0.11314554489012318</v>
       </c>
       <c r="R59" s="0">
-        <v>0.046544840061153073</v>
+        <v>0.03220296077143505</v>
       </c>
       <c r="S59" s="0">
-        <v>0.78933707148319698</v>
+        <v>0.47479439549554359</v>
       </c>
       <c r="T59" s="0">
-        <v>32733.360847283169</v>
+        <v>25263.988836259559</v>
       </c>
       <c r="U59" s="0">
-        <v>0.1202786470714432</v>
+        <v>0.094224238637903149</v>
       </c>
       <c r="V59" s="0">
-        <v>0.054467263871168174</v>
+        <v>0.054054410218259276</v>
       </c>
       <c r="W59" s="0">
-        <v>1.62973193822743</v>
+        <v>0.97989659217575598</v>
       </c>
       <c r="X59" s="0">
-        <v>10463.952433522238</v>
+        <v>9195.492029697245</v>
       </c>
       <c r="Y59" s="0">
-        <v>0.038804929273866508</v>
+        <v>0.038210543621790313</v>
       </c>
       <c r="Z59" s="0">
-        <v>0.018059971111580357</v>
+        <v>0.016219872284280332</v>
       </c>
       <c r="AA59" s="0">
-        <v>0.25875341946688274</v>
+        <v>0.18397030568393971</v>
       </c>
       <c r="AB59" s="0">
-        <v>10415.33762103458</v>
+        <v>8659.2850125289751</v>
       </c>
       <c r="AC59" s="0">
-        <v>0.039615785820449369</v>
+        <v>0.034339694427911044</v>
+      </c>
+      <c r="AD59" s="0">
+        <v>0.93938081535745943</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>5084.4499999999998</v>
+        <v>7016.5409999999993</v>
       </c>
       <c r="B60" s="0">
         <v>458.39999999999998</v>
@@ -6496,7 +6658,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E60" s="0">
-        <v>190490.79999999999</v>
+        <v>128710</v>
       </c>
       <c r="F60" s="0">
         <v>840857</v>
@@ -6523,57 +6685,60 @@
         <v>0</v>
       </c>
       <c r="N60" s="0">
-        <v>0.14840395583387353</v>
+        <v>0.126038006020187</v>
       </c>
       <c r="O60" s="0">
-        <v>4.7496792262773671</v>
+        <v>2.9153653626257334</v>
       </c>
       <c r="P60" s="0">
-        <v>40037.326101755745</v>
+        <v>42522.647352803964</v>
       </c>
       <c r="Q60" s="0">
-        <v>0.11493124388540986</v>
+        <v>0.11315675252409463</v>
       </c>
       <c r="R60" s="0">
-        <v>0.047093171678564041</v>
+        <v>0.032202960771435016</v>
       </c>
       <c r="S60" s="0">
-        <v>0.80285194339995758</v>
+        <v>0.47479439549554314</v>
       </c>
       <c r="T60" s="0">
-        <v>33278.939518880674</v>
+        <v>25247.49839933898</v>
       </c>
       <c r="U60" s="0">
-        <v>0.12191252286504553</v>
+        <v>0.09389572454564668</v>
       </c>
       <c r="V60" s="0">
-        <v>0.054510846099806762</v>
+        <v>0.054077402620213065</v>
       </c>
       <c r="W60" s="0">
-        <v>1.6443971609168397</v>
+        <v>0.96482504294022542</v>
       </c>
       <c r="X60" s="0">
-        <v>10577.365405305871</v>
+        <v>9200.0359448690197</v>
       </c>
       <c r="Y60" s="0">
-        <v>0.039165977244134793</v>
+        <v>0.038291090475882888</v>
       </c>
       <c r="Z60" s="0">
-        <v>0.018275482924081845</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA60" s="0">
-        <v>0.2639436038354262</v>
+        <v>0.18397030568393971</v>
       </c>
       <c r="AB60" s="0">
-        <v>10532.724279710783</v>
+        <v>8649.315715855595</v>
       </c>
       <c r="AC60" s="0">
-        <v>0.039967103804305536</v>
+        <v>0.034240146025445672</v>
+      </c>
+      <c r="AD60" s="0">
+        <v>0.93697155607078397</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>5084.4499999999998</v>
+        <v>7118.2299999999996</v>
       </c>
       <c r="B61" s="0">
         <v>458.39999999999998</v>
@@ -6585,7 +6750,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E61" s="0">
-        <v>193065</v>
+        <v>128710</v>
       </c>
       <c r="F61" s="0">
         <v>840857</v>
@@ -6612,57 +6777,60 @@
         <v>0</v>
       </c>
       <c r="N61" s="0">
-        <v>0.14889360212261632</v>
+        <v>0.12577912479382769</v>
       </c>
       <c r="O61" s="0">
-        <v>4.7952338784764379</v>
+        <v>2.8845966089092734</v>
       </c>
       <c r="P61" s="0">
-        <v>40301.359488665126</v>
+        <v>42554.017812445672</v>
       </c>
       <c r="Q61" s="0">
-        <v>0.11461541973910648</v>
+        <v>0.11317723289564849</v>
       </c>
       <c r="R61" s="0">
-        <v>0.047629908560133508</v>
+        <v>0.032202960771434988</v>
       </c>
       <c r="S61" s="0">
-        <v>0.81559300007433788</v>
+        <v>0.47479439549554353</v>
       </c>
       <c r="T61" s="0">
-        <v>33810.657684139071</v>
+        <v>25229.42286205398</v>
       </c>
       <c r="U61" s="0">
-        <v>0.12342863950100291</v>
+        <v>0.093573828682600529</v>
       </c>
       <c r="V61" s="0">
-        <v>0.054555378276699512</v>
+        <v>0.054101429391138003</v>
       </c>
       <c r="W61" s="0">
-        <v>1.6592643804559364</v>
+        <v>0.95022514492430643</v>
       </c>
       <c r="X61" s="0">
-        <v>10695.198955706119</v>
+        <v>9204.7339582031564</v>
       </c>
       <c r="Y61" s="0">
-        <v>0.039535637727066003</v>
+        <v>0.038372831773144274</v>
       </c>
       <c r="Z61" s="0">
-        <v>0.01850280073200012</v>
+        <v>0.016219872284280307</v>
       </c>
       <c r="AA61" s="0">
-        <v>0.26925523942107921</v>
+        <v>0.1839703056839396</v>
       </c>
       <c r="AB61" s="0">
-        <v>10653.827629097688</v>
+        <v>8639.4075979081226</v>
       </c>
       <c r="AC61" s="0">
-        <v>0.040322421774489407</v>
+        <v>0.034139870245486495</v>
+      </c>
+      <c r="AD61" s="0">
+        <v>0.93463963666576</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>5084.4499999999998</v>
+        <v>7219.918999999999</v>
       </c>
       <c r="B62" s="0">
         <v>458.39999999999998</v>
@@ -6674,7 +6842,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E62" s="0">
-        <v>195639.20000000001</v>
+        <v>128710</v>
       </c>
       <c r="F62" s="0">
         <v>840857</v>
@@ -6701,57 +6869,60 @@
         <v>0</v>
       </c>
       <c r="N62" s="0">
-        <v>0.14937373885552963</v>
+        <v>0.12554317758074929</v>
       </c>
       <c r="O62" s="0">
-        <v>4.8402392631454365</v>
+        <v>2.8539670863821769</v>
       </c>
       <c r="P62" s="0">
-        <v>40554.295698585513</v>
+        <v>42582.793110464518</v>
       </c>
       <c r="Q62" s="0">
-        <v>0.11422712736693277</v>
+        <v>0.11320669267968061</v>
       </c>
       <c r="R62" s="0">
-        <v>0.048153478486817489</v>
+        <v>0.032202960771435071</v>
       </c>
       <c r="S62" s="0">
-        <v>0.82747480713531263</v>
+        <v>0.47479439549554359</v>
       </c>
       <c r="T62" s="0">
-        <v>34325.841678363642</v>
+        <v>25209.820505930264</v>
       </c>
       <c r="U62" s="0">
-        <v>0.12481938096773035</v>
+        <v>0.093257630534993821</v>
       </c>
       <c r="V62" s="0">
-        <v>0.054600811291703653</v>
+        <v>0.054126482128590753</v>
       </c>
       <c r="W62" s="0">
-        <v>1.6743268489461143</v>
+        <v>0.93607929878522322</v>
       </c>
       <c r="X62" s="0">
-        <v>10817.069780668744</v>
+        <v>9209.5829734435556</v>
       </c>
       <c r="Y62" s="0">
-        <v>0.039910741778907834</v>
+        <v>0.038455755320244658</v>
       </c>
       <c r="Z62" s="0">
-        <v>0.018740606938445516</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA62" s="0">
-        <v>0.27467086863611612</v>
+        <v>0.18397030568393974</v>
       </c>
       <c r="AB62" s="0">
-        <v>10778.320883965371</v>
+        <v>8629.5638624600688</v>
       </c>
       <c r="AC62" s="0">
-        <v>0.040679280950293391</v>
+        <v>0.034038955369162807</v>
+      </c>
+      <c r="AD62" s="0">
+        <v>0.93238244126832048</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>5084.4499999999998</v>
+        <v>7321.6079999999993</v>
       </c>
       <c r="B63" s="0">
         <v>458.39999999999998</v>
@@ -6763,7 +6934,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E63" s="0">
-        <v>198213.39999999999</v>
+        <v>128710</v>
       </c>
       <c r="F63" s="0">
         <v>840857</v>
@@ -6790,57 +6961,60 @@
         <v>0</v>
       </c>
       <c r="N63" s="0">
-        <v>0.14984416335803291</v>
+        <v>0.12533001066803892</v>
       </c>
       <c r="O63" s="0">
-        <v>4.8846271847088261</v>
+        <v>2.8235072135910819</v>
       </c>
       <c r="P63" s="0">
-        <v>40788.067068705262</v>
+        <v>42609.148231078172</v>
       </c>
       <c r="Q63" s="0">
-        <v>0.11376213267664362</v>
+        <v>0.11324493271136953</v>
       </c>
       <c r="R63" s="0">
-        <v>0.048662947107211731</v>
+        <v>0.032202960771435023</v>
       </c>
       <c r="S63" s="0">
-        <v>0.83841365681484614</v>
+        <v>0.47479439549554325</v>
       </c>
       <c r="T63" s="0">
-        <v>34821.811894062077</v>
+        <v>25188.748092376831</v>
       </c>
       <c r="U63" s="0">
-        <v>0.12607585162509036</v>
+        <v>0.092946206703259177</v>
       </c>
       <c r="V63" s="0">
-        <v>0.054647096396345018</v>
+        <v>0.054152551089007843</v>
       </c>
       <c r="W63" s="0">
-        <v>1.6895778331457203</v>
+        <v>0.92237068660522059</v>
       </c>
       <c r="X63" s="0">
-        <v>10942.553158748575</v>
+        <v>9214.5801395573853</v>
       </c>
       <c r="Y63" s="0">
-        <v>0.040288151966018863</v>
+        <v>0.038539849628170683</v>
       </c>
       <c r="Z63" s="0">
-        <v>0.018987469269544425</v>
+        <v>0.016219872284280332</v>
       </c>
       <c r="AA63" s="0">
-        <v>0.2801721203187208</v>
+        <v>0.18397030568393974</v>
       </c>
       <c r="AB63" s="0">
-        <v>10905.846099910663</v>
+        <v>8619.7872155330242</v>
       </c>
       <c r="AC63" s="0">
-        <v>0.041035262233558793</v>
+        <v>0.033937482503587767</v>
+      </c>
+      <c r="AD63" s="0">
+        <v>0.9301974627863494</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>5084.4499999999998</v>
+        <v>7423.2969999999996</v>
       </c>
       <c r="B64" s="0">
         <v>458.39999999999998</v>
@@ -6852,7 +7026,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E64" s="0">
-        <v>200787.60000000001</v>
+        <v>128710</v>
       </c>
       <c r="F64" s="0">
         <v>840857</v>
@@ -6879,57 +7053,60 @@
         <v>0</v>
       </c>
       <c r="N64" s="0">
-        <v>0.15030469265700985</v>
+        <v>0.12513941115891519</v>
       </c>
       <c r="O64" s="0">
-        <v>4.9283311800192031</v>
+        <v>2.7932470680878509</v>
       </c>
       <c r="P64" s="0">
-        <v>40994.556695653817</v>
+        <v>42633.258129269059</v>
       </c>
       <c r="Q64" s="0">
-        <v>0.11321844498446421</v>
+        <v>0.1132918273204212</v>
       </c>
       <c r="R64" s="0">
-        <v>0.049155418618486227</v>
+        <v>0.032202960771435002</v>
       </c>
       <c r="S64" s="0">
-        <v>0.84832917039950573</v>
+        <v>0.47479439549554359</v>
       </c>
       <c r="T64" s="0">
-        <v>35295.93263624113</v>
+        <v>25166.259187273645</v>
       </c>
       <c r="U64" s="0">
-        <v>0.12719112582639763</v>
+        <v>0.092638659817229921</v>
       </c>
       <c r="V64" s="0">
-        <v>0.05469418562658613</v>
+        <v>0.054179625326950476</v>
       </c>
       <c r="W64" s="0">
-        <v>1.7050106893545722</v>
+        <v>0.90908321632494304</v>
       </c>
       <c r="X64" s="0">
-        <v>11071.188900071265</v>
+        <v>9219.7227381797748</v>
       </c>
       <c r="Y64" s="0">
-        <v>0.040664804184888992</v>
+        <v>0.038625102821339741</v>
       </c>
       <c r="Z64" s="0">
-        <v>0.019241867749446528</v>
+        <v>0.016219872284280321</v>
       </c>
       <c r="AA64" s="0">
-        <v>0.28573995581338824</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB64" s="0">
-        <v>11036.018986961344</v>
+        <v>8610.0799666674066</v>
       </c>
       <c r="AC64" s="0">
-        <v>0.041388019561613372</v>
+        <v>0.033835526808054926</v>
+      </c>
+      <c r="AD64" s="0">
+        <v>0.92808229478157456</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>5084.4499999999998</v>
+        <v>7524.9859999999999</v>
       </c>
       <c r="B65" s="0">
         <v>458.39999999999998</v>
@@ -6941,7 +7118,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E65" s="0">
-        <v>203361.80000000002</v>
+        <v>128710</v>
       </c>
       <c r="F65" s="0">
         <v>840857</v>
@@ -6968,57 +7145,60 @@
         <v>0</v>
       </c>
       <c r="N65" s="0">
-        <v>0.1507551677704066</v>
+        <v>0.12497111429767682</v>
       </c>
       <c r="O65" s="0">
-        <v>4.9712866825341706</v>
+        <v>2.7632159302962886</v>
       </c>
       <c r="P65" s="0">
-        <v>41166.395626487436</v>
+        <v>42655.29630081787</v>
       </c>
       <c r="Q65" s="0">
-        <v>0.11259416004044051</v>
+        <v>0.11334730326212472</v>
       </c>
       <c r="R65" s="0">
-        <v>0.049625736770592864</v>
+        <v>0.032202960771435023</v>
       </c>
       <c r="S65" s="0">
-        <v>0.8571458609881375</v>
+        <v>0.47479439549554336</v>
       </c>
       <c r="T65" s="0">
-        <v>35745.661606211521</v>
+        <v>25142.402680557403</v>
       </c>
       <c r="U65" s="0">
-        <v>0.12815742388419804</v>
+        <v>0.092334525137516554</v>
       </c>
       <c r="V65" s="0">
-        <v>0.054742032206378403</v>
+        <v>0.05420769286156054</v>
       </c>
       <c r="W65" s="0">
-        <v>1.7206189347458085</v>
+        <v>0.89620147457800059</v>
       </c>
       <c r="X65" s="0">
-        <v>11202.487216701464</v>
+        <v>9225.0080789262684</v>
       </c>
       <c r="Y65" s="0">
-        <v>0.041037742568218884</v>
+        <v>0.038711501610560577</v>
       </c>
       <c r="Z65" s="0">
-        <v>0.019502219397037692</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA65" s="0">
-        <v>0.29135488484629285</v>
+        <v>0.18397030568393974</v>
       </c>
       <c r="AB65" s="0">
-        <v>11168.433401978295</v>
+        <v>8600.444135371954</v>
       </c>
       <c r="AC65" s="0">
-        <v>0.041735306643766207</v>
+        <v>0.033733158806798273</v>
+      </c>
+      <c r="AD65" s="0">
+        <v>0.92603464245286293</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>5084.4499999999998</v>
+        <v>7626.6749999999993</v>
       </c>
       <c r="B66" s="0">
         <v>458.39999999999998</v>
@@ -7030,7 +7210,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E66" s="0">
-        <v>205936</v>
+        <v>128710</v>
       </c>
       <c r="F66" s="0">
         <v>840857</v>
@@ -7057,57 +7237,60 @@
         <v>0</v>
       </c>
       <c r="N66" s="0">
-        <v>0.15119544991974282</v>
+        <v>0.12482489592287674</v>
       </c>
       <c r="O66" s="0">
-        <v>5.0134311984349882</v>
+        <v>2.733441961197272</v>
       </c>
       <c r="P66" s="0">
-        <v>41297.026108743426</v>
+        <v>42675.433737529587</v>
       </c>
       <c r="Q66" s="0">
-        <v>0.11188553837448639</v>
+        <v>0.1134113192179747</v>
       </c>
       <c r="R66" s="0">
-        <v>0.05006820918489846</v>
+        <v>0.032202960771435023</v>
       </c>
       <c r="S66" s="0">
-        <v>0.86479462145078612</v>
+        <v>0.47479439549554336</v>
       </c>
       <c r="T66" s="0">
-        <v>36168.597856133856</v>
+        <v>25117.221600424833</v>
       </c>
       <c r="U66" s="0">
-        <v>0.12896751632168385</v>
+        <v>0.092032900818658128</v>
       </c>
       <c r="V66" s="0">
-        <v>0.054790590921803349</v>
+        <v>0.054236740857845266</v>
       </c>
       <c r="W66" s="0">
-        <v>1.736396313304011</v>
+        <v>0.88371068645953776</v>
       </c>
       <c r="X66" s="0">
-        <v>11335.934292631577</v>
+        <v>9230.4334065433122</v>
       </c>
       <c r="Y66" s="0">
-        <v>0.041404146737927632</v>
+        <v>0.038799030381117261</v>
       </c>
       <c r="Z66" s="0">
-        <v>0.01976689996300645</v>
+        <v>0.016219872284280332</v>
       </c>
       <c r="AA66" s="0">
-        <v>0.29699714569056068</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB66" s="0">
-        <v>11302.665330489102</v>
+        <v>8590.8815559955456</v>
       </c>
       <c r="AC66" s="0">
-        <v>0.042074996364197988</v>
+        <v>0.033630445704624805</v>
+      </c>
+      <c r="AD66" s="0">
+        <v>0.92405227613854701</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>5084.4499999999998</v>
+        <v>7728.3639999999996</v>
       </c>
       <c r="B67" s="0">
         <v>458.39999999999998</v>
@@ -7119,7 +7302,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E67" s="0">
-        <v>208510.20000000001</v>
+        <v>128710</v>
       </c>
       <c r="F67" s="0">
         <v>840857</v>
@@ -7146,57 +7329,60 @@
         <v>0</v>
       </c>
       <c r="N67" s="0">
-        <v>0.15162548080406976</v>
+        <v>0.1247004175797225</v>
       </c>
       <c r="O67" s="0">
-        <v>5.054704490177043</v>
+        <v>2.7039519921256261</v>
       </c>
       <c r="P67" s="0">
-        <v>41377.563325450108</v>
+        <v>42693.838215869997</v>
       </c>
       <c r="Q67" s="0">
-        <v>0.11108989943213213</v>
+        <v>0.11348384665423514</v>
       </c>
       <c r="R67" s="0">
-        <v>0.050477980050460079</v>
+        <v>0.03220296077143505</v>
       </c>
       <c r="S67" s="0">
-        <v>0.87121410624810702</v>
+        <v>0.47479439549554309</v>
       </c>
       <c r="T67" s="0">
-        <v>36562.527158410427</v>
+        <v>25090.752288282751</v>
       </c>
       <c r="U67" s="0">
-        <v>0.12961368946858876</v>
+        <v>0.091732808384884026</v>
       </c>
       <c r="V67" s="0">
-        <v>0.05483981845675296</v>
+        <v>0.05426675581306694</v>
       </c>
       <c r="W67" s="0">
-        <v>1.7523368546911475</v>
+        <v>0.87159668091631826</v>
       </c>
       <c r="X67" s="0">
-        <v>11470.997406979885</v>
+        <v>9235.9958230155189</v>
       </c>
       <c r="Y67" s="0">
-        <v>0.041761351249240727</v>
+        <v>0.038887670436950302</v>
       </c>
       <c r="Z67" s="0">
-        <v>0.020034262387300227</v>
+        <v>0.016219872284280332</v>
       </c>
       <c r="AA67" s="0">
-        <v>0.30264684806339964</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB67" s="0">
-        <v>11438.2762520825</v>
+        <v>8581.3939752376573</v>
       </c>
       <c r="AC67" s="0">
-        <v>0.042405092704181684</v>
+        <v>0.03352745263178189</v>
+      </c>
+      <c r="AD67" s="0">
+        <v>0.92213304274444008</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>5084.4499999999998</v>
+        <v>7830.0529999999999</v>
       </c>
       <c r="B68" s="0">
         <v>458.39999999999998</v>
@@ -7208,7 +7394,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E68" s="0">
-        <v>211084.40000000002</v>
+        <v>128710</v>
       </c>
       <c r="F68" s="0">
         <v>840857</v>
@@ -7235,57 +7421,60 @@
         <v>0</v>
       </c>
       <c r="N68" s="0">
-        <v>0.15204534438676071</v>
+        <v>0.12459735991463769</v>
       </c>
       <c r="O68" s="0">
-        <v>5.0950487618150806</v>
+        <v>2.6747714068325639</v>
       </c>
       <c r="P68" s="0">
-        <v>41401.408012225729</v>
+        <v>42710.673869613704</v>
       </c>
       <c r="Q68" s="0">
-        <v>0.11020682605394408</v>
+        <v>0.11356485265611278</v>
       </c>
       <c r="R68" s="0">
-        <v>0.050850778521963111</v>
+        <v>0.032202960771435002</v>
       </c>
       <c r="S68" s="0">
-        <v>0.87756222589231081</v>
+        <v>0.47479439549554348</v>
       </c>
       <c r="T68" s="0">
-        <v>36925.46385301555</v>
+        <v>25063.023969018359</v>
       </c>
       <c r="U68" s="0">
-        <v>0.13009647691394791</v>
+        <v>0.091433646776163002</v>
       </c>
       <c r="V68" s="0">
-        <v>0.054889673682543133</v>
+        <v>0.054297723741110963</v>
       </c>
       <c r="W68" s="0">
-        <v>1.7684349246006814</v>
+        <v>0.8598458606363818</v>
       </c>
       <c r="X68" s="0">
-        <v>11607.12955149972</v>
+        <v>9241.6922268489216</v>
       </c>
       <c r="Y68" s="0">
-        <v>0.042106857649189901</v>
+        <v>0.038977399430806636</v>
       </c>
       <c r="Z68" s="0">
-        <v>0.020302652016845061</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA68" s="0">
-        <v>0.3082840811826259</v>
+        <v>0.18397030568393968</v>
       </c>
       <c r="AB68" s="0">
-        <v>11574.81587805342</v>
+        <v>8571.9831376943766</v>
       </c>
       <c r="AC68" s="0">
-        <v>0.042723735620165001</v>
+        <v>0.033424243757458928</v>
+      </c>
+      <c r="AD68" s="0">
+        <v>0.92027488242728961</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>5084.4499999999998</v>
+        <v>7931.7420000000002</v>
       </c>
       <c r="B69" s="0">
         <v>458.39999999999998</v>
@@ -7297,7 +7486,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E69" s="0">
-        <v>213658.60000000001</v>
+        <v>128710</v>
       </c>
       <c r="F69" s="0">
         <v>840857</v>
@@ -7324,57 +7513,60 @@
         <v>0</v>
       </c>
       <c r="N69" s="0">
-        <v>0.15245474122405991</v>
+        <v>0.12451528024202843</v>
       </c>
       <c r="O69" s="0">
-        <v>5.134408839634574</v>
+        <v>2.6459240982179093</v>
       </c>
       <c r="P69" s="0">
-        <v>41362.755710056437</v>
+        <v>42726.101000921466</v>
       </c>
       <c r="Q69" s="0">
-        <v>0.10923784203323049</v>
+        <v>0.11365428519903992</v>
       </c>
       <c r="R69" s="0">
-        <v>0.051182411793900831</v>
+        <v>0.032202960771435016</v>
       </c>
       <c r="S69" s="0">
-        <v>0.89203967605352097</v>
+        <v>0.4747943954955432</v>
       </c>
       <c r="T69" s="0">
-        <v>37255.688367520881</v>
+        <v>25034.058722634727</v>
       </c>
       <c r="U69" s="0">
-        <v>0.13041110881832432</v>
+        <v>0.091134913783955343</v>
       </c>
       <c r="V69" s="0">
-        <v>0.054940117895582265</v>
+        <v>0.054329630349990145</v>
       </c>
       <c r="W69" s="0">
-        <v>1.7846852654670022</v>
+        <v>0.84844517551447163</v>
       </c>
       <c r="X69" s="0">
-        <v>11743.773571989204</v>
+        <v>9247.5192708407303</v>
       </c>
       <c r="Y69" s="0">
-        <v>0.042438340091360188</v>
+        <v>0.039068190998904934</v>
       </c>
       <c r="Z69" s="0">
-        <v>0.020570418942403811</v>
+        <v>0.016219872284280325</v>
       </c>
       <c r="AA69" s="0">
-        <v>0.31388899301907802</v>
+        <v>0.18397030568393971</v>
       </c>
       <c r="AB69" s="0">
-        <v>11711.824344285504</v>
+        <v>8562.6508561131759</v>
       </c>
       <c r="AC69" s="0">
-        <v>0.043029199852514889</v>
+        <v>0.033320883225983207</v>
+      </c>
+      <c r="AD69" s="0">
+        <v>0.9184758122241381</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>5084.4499999999998</v>
+        <v>8033.4310000000005</v>
       </c>
       <c r="B70" s="0">
         <v>458.39999999999998</v>
@@ -7386,7 +7578,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E70" s="0">
-        <v>216232.80000000002</v>
+        <v>128710</v>
       </c>
       <c r="F70" s="0">
         <v>840857</v>
@@ -7413,57 +7605,60 @@
         <v>0</v>
       </c>
       <c r="N70" s="0">
-        <v>0.15285361643388978</v>
+        <v>0.12445377050058259</v>
       </c>
       <c r="O70" s="0">
-        <v>5.1727323411714057</v>
+        <v>2.6174324842693277</v>
       </c>
       <c r="P70" s="0">
-        <v>41256.73649318712</v>
+        <v>42740.2760877787</v>
       </c>
       <c r="Q70" s="0">
-        <v>0.10818482713616168</v>
+        <v>0.11375206117628421</v>
       </c>
       <c r="R70" s="0">
-        <v>0.051469768011498856</v>
+        <v>0.032202960771435078</v>
       </c>
       <c r="S70" s="0">
-        <v>0.90584011176660928</v>
+        <v>0.47479439549554414</v>
       </c>
       <c r="T70" s="0">
-        <v>37551.779744632746</v>
+        <v>25003.871838518495</v>
       </c>
       <c r="U70" s="0">
-        <v>0.13055569233244674</v>
+        <v>0.090836208429014839</v>
       </c>
       <c r="V70" s="0">
-        <v>0.054991114999192937</v>
+        <v>0.054362461209453504</v>
       </c>
       <c r="W70" s="0">
-        <v>1.8010830267564224</v>
+        <v>0.83738209895528637</v>
       </c>
       <c r="X70" s="0">
-        <v>11880.365941770009</v>
+        <v>9253.4733387646356</v>
       </c>
       <c r="Y70" s="0">
-        <v>0.042753645858589928</v>
+        <v>0.039160014607651616</v>
       </c>
       <c r="Z70" s="0">
-        <v>0.020835928060451866</v>
+        <v>0.016219872284280335</v>
       </c>
       <c r="AA70" s="0">
-        <v>0.31944184964798733</v>
+        <v>0.18397030568393977</v>
       </c>
       <c r="AB70" s="0">
-        <v>11848.834025184013</v>
+        <v>8553.3990643042125</v>
       </c>
       <c r="AC70" s="0">
-        <v>0.043319889079618368</v>
+        <v>0.03321743588487816</v>
+      </c>
+      <c r="AD70" s="0">
+        <v>0.91673392324339953</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>5084.4499999999998</v>
+        <v>8135.1199999999999</v>
       </c>
       <c r="B71" s="0">
         <v>458.39999999999998</v>
@@ -7475,7 +7670,7 @@
         <v>11522.5191099067</v>
       </c>
       <c r="E71" s="0">
-        <v>218807.00000000003</v>
+        <v>128710</v>
       </c>
       <c r="F71" s="0">
         <v>840857</v>
@@ -7502,52 +7697,975 @@
         <v>0</v>
       </c>
       <c r="N71" s="0">
-        <v>0.15324193988113938</v>
+        <v>0.12441237973407746</v>
       </c>
       <c r="O71" s="0">
-        <v>5.2099698256092513</v>
+        <v>2.5893175694842387</v>
       </c>
       <c r="P71" s="0">
-        <v>41079.533172921787</v>
+        <v>42753.351947973446</v>
       </c>
       <c r="Q71" s="0">
-        <v>0.10704879731250994</v>
+        <v>0.11385805737263655</v>
       </c>
       <c r="R71" s="0">
-        <v>0.051710514851151967</v>
+        <v>0.032202960771435044</v>
       </c>
       <c r="S71" s="0">
-        <v>0.91889268807874314</v>
+        <v>0.4747943954955432</v>
       </c>
       <c r="T71" s="0">
-        <v>37812.642656521362</v>
+        <v>24972.472513023808</v>
       </c>
       <c r="U71" s="0">
-        <v>0.13053300619955044</v>
+        <v>0.0905372299868617</v>
       </c>
       <c r="V71" s="0">
-        <v>0.05504263162782614</v>
+        <v>0.054396201906953184</v>
       </c>
       <c r="W71" s="0">
-        <v>1.8176237844570553</v>
+        <v>0.82664460643847182</v>
       </c>
       <c r="X71" s="0">
-        <v>12016.340334876339</v>
+        <v>9259.5505405773147</v>
       </c>
       <c r="Y71" s="0">
-        <v>0.043050792411847214</v>
+        <v>0.039252835609663195</v>
       </c>
       <c r="Z71" s="0">
-        <v>0.021097567620721396</v>
+        <v>0.016219872284280328</v>
       </c>
       <c r="AA71" s="0">
-        <v>0.32492308544993143</v>
+        <v>0.18397030568393974</v>
       </c>
       <c r="AB71" s="0">
-        <v>11985.371196160846</v>
+        <v>8544.2298518563584</v>
       </c>
       <c r="AC71" s="0">
-        <v>0.043594327131962075</v>
+        <v>0.033113967788579585</v>
+      </c>
+      <c r="AD71" s="0">
+        <v>0.91504737817862902</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>8236.8089999999993</v>
+      </c>
+      <c r="B72" s="0">
+        <v>458.39999999999998</v>
+      </c>
+      <c r="C72" s="0">
+        <v>140559.89477499999</v>
+      </c>
+      <c r="D72" s="0">
+        <v>11522.5191099067</v>
+      </c>
+      <c r="E72" s="0">
+        <v>128710</v>
+      </c>
+      <c r="F72" s="0">
+        <v>840857</v>
+      </c>
+      <c r="G72" s="0">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H72" s="0">
+        <v>1</v>
+      </c>
+      <c r="I72" s="0">
+        <v>1</v>
+      </c>
+      <c r="J72" s="0">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="K72" s="0">
+        <v>50</v>
+      </c>
+      <c r="L72" s="0">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M72" s="0">
+        <v>0</v>
+      </c>
+      <c r="N72" s="0">
+        <v>0.1243905186297127</v>
+      </c>
+      <c r="O72" s="0">
+        <v>2.561599039300944</v>
+      </c>
+      <c r="P72" s="0">
+        <v>42765.47802045726</v>
+      </c>
+      <c r="Q72" s="0">
+        <v>0.11397210445612997</v>
+      </c>
+      <c r="R72" s="0">
+        <v>0.032202960771435016</v>
+      </c>
+      <c r="S72" s="0">
+        <v>0.47479439549554359</v>
+      </c>
+      <c r="T72" s="0">
+        <v>24939.864834913868</v>
+      </c>
+      <c r="U72" s="0">
+        <v>0.090238038273699736</v>
+      </c>
+      <c r="V72" s="0">
+        <v>0.05443083819100427</v>
+      </c>
+      <c r="W72" s="0">
+        <v>0.81622115590133504</v>
+      </c>
+      <c r="X72" s="0">
+        <v>9265.7467250140508</v>
+      </c>
+      <c r="Y72" s="0">
+        <v>0.039346615497165879</v>
+      </c>
+      <c r="Z72" s="0">
+        <v>0.016219872284280318</v>
+      </c>
+      <c r="AA72" s="0">
+        <v>0.18397030568393966</v>
+      </c>
+      <c r="AB72" s="0">
+        <v>8535.1454808764029</v>
+      </c>
+      <c r="AC72" s="0">
+        <v>0.033010546475018852</v>
+      </c>
+      <c r="AD72" s="0">
+        <v>0.91341442126007655</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>8338.4979999999996</v>
+      </c>
+      <c r="B73" s="0">
+        <v>458.39999999999998</v>
+      </c>
+      <c r="C73" s="0">
+        <v>140559.89477499999</v>
+      </c>
+      <c r="D73" s="0">
+        <v>11522.5191099067</v>
+      </c>
+      <c r="E73" s="0">
+        <v>128710</v>
+      </c>
+      <c r="F73" s="0">
+        <v>840857</v>
+      </c>
+      <c r="G73" s="0">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H73" s="0">
+        <v>1</v>
+      </c>
+      <c r="I73" s="0">
+        <v>1</v>
+      </c>
+      <c r="J73" s="0">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="K73" s="0">
+        <v>50</v>
+      </c>
+      <c r="L73" s="0">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M73" s="0">
+        <v>0</v>
+      </c>
+      <c r="N73" s="0">
+        <v>0.12438759266374444</v>
+      </c>
+      <c r="O73" s="0">
+        <v>2.5342953758994131</v>
+      </c>
+      <c r="P73" s="0">
+        <v>42776.800724315595</v>
+      </c>
+      <c r="Q73" s="0">
+        <v>0.11409398395307806</v>
+      </c>
+      <c r="R73" s="0">
+        <v>0.032202960771435037</v>
+      </c>
+      <c r="S73" s="0">
+        <v>0.4747943954955437</v>
+      </c>
+      <c r="T73" s="0">
+        <v>24906.048991578107</v>
+      </c>
+      <c r="U73" s="0">
+        <v>0.089938484900696683</v>
+      </c>
+      <c r="V73" s="0">
+        <v>0.054466356101319127</v>
+      </c>
+      <c r="W73" s="0">
+        <v>0.80610066959723981</v>
+      </c>
+      <c r="X73" s="0">
+        <v>9272.0575078121728</v>
+      </c>
+      <c r="Y73" s="0">
+        <v>0.039441312333021949</v>
+      </c>
+      <c r="Z73" s="0">
+        <v>0.016219872284280328</v>
+      </c>
+      <c r="AA73" s="0">
+        <v>0.18397030568393968</v>
+      </c>
+      <c r="AB73" s="0">
+        <v>8526.1483858743668</v>
+      </c>
+      <c r="AC73" s="0">
+        <v>0.032907241023985283</v>
+      </c>
+      <c r="AD73" s="0">
+        <v>0.91183335026005774</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>8440.1869999999999</v>
+      </c>
+      <c r="B74" s="0">
+        <v>458.39999999999998</v>
+      </c>
+      <c r="C74" s="0">
+        <v>140559.89477499999</v>
+      </c>
+      <c r="D74" s="0">
+        <v>11522.5191099067</v>
+      </c>
+      <c r="E74" s="0">
+        <v>128710</v>
+      </c>
+      <c r="F74" s="0">
+        <v>840857</v>
+      </c>
+      <c r="G74" s="0">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H74" s="0">
+        <v>1</v>
+      </c>
+      <c r="I74" s="0">
+        <v>1</v>
+      </c>
+      <c r="J74" s="0">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="K74" s="0">
+        <v>50</v>
+      </c>
+      <c r="L74" s="0">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M74" s="0">
+        <v>0</v>
+      </c>
+      <c r="N74" s="0">
+        <v>0.12440294561558485</v>
+      </c>
+      <c r="O74" s="0">
+        <v>2.5074239843088488</v>
+      </c>
+      <c r="P74" s="0">
+        <v>42787.463854339767</v>
+      </c>
+      <c r="Q74" s="0">
+        <v>0.11422342807600755</v>
+      </c>
+      <c r="R74" s="0">
+        <v>0.032202960771435044</v>
+      </c>
+      <c r="S74" s="0">
+        <v>0.47479439549554359</v>
+      </c>
+      <c r="T74" s="0">
+        <v>24871.022621799948</v>
+      </c>
+      <c r="U74" s="0">
+        <v>0.089638284282102063</v>
+      </c>
+      <c r="V74" s="0">
+        <v>0.054502742085124421</v>
+      </c>
+      <c r="W74" s="0">
+        <v>0.7962725171623769</v>
+      </c>
+      <c r="X74" s="0">
+        <v>9278.4783132951397</v>
+      </c>
+      <c r="Y74" s="0">
+        <v>0.039536881333346353</v>
+      </c>
+      <c r="Z74" s="0">
+        <v>0.016219872284280332</v>
+      </c>
+      <c r="AA74" s="0">
+        <v>0.18397030568393977</v>
+      </c>
+      <c r="AB74" s="0">
+        <v>8517.2411586369635</v>
+      </c>
+      <c r="AC74" s="0">
+        <v>0.032804121915873133</v>
+      </c>
+      <c r="AD74" s="0">
+        <v>0.91030251826543918</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>8541.8760000000002</v>
+      </c>
+      <c r="B75" s="0">
+        <v>458.39999999999998</v>
+      </c>
+      <c r="C75" s="0">
+        <v>140559.89477499999</v>
+      </c>
+      <c r="D75" s="0">
+        <v>11522.5191099067</v>
+      </c>
+      <c r="E75" s="0">
+        <v>128710</v>
+      </c>
+      <c r="F75" s="0">
+        <v>840857</v>
+      </c>
+      <c r="G75" s="0">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H75" s="0">
+        <v>1</v>
+      </c>
+      <c r="I75" s="0">
+        <v>1</v>
+      </c>
+      <c r="J75" s="0">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="K75" s="0">
+        <v>50</v>
+      </c>
+      <c r="L75" s="0">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M75" s="0">
+        <v>0</v>
+      </c>
+      <c r="N75" s="0">
+        <v>0.12443585921851419</v>
+      </c>
+      <c r="O75" s="0">
+        <v>2.4810013182862551</v>
+      </c>
+      <c r="P75" s="0">
+        <v>42797.608971219001</v>
+      </c>
+      <c r="Q75" s="0">
+        <v>0.11436012218971489</v>
+      </c>
+      <c r="R75" s="0">
+        <v>0.03220296077143505</v>
+      </c>
+      <c r="S75" s="0">
+        <v>0.47479439549554348</v>
+      </c>
+      <c r="T75" s="0">
+        <v>24834.782238016167</v>
+      </c>
+      <c r="U75" s="0">
+        <v>0.089337472846151011</v>
+      </c>
+      <c r="V75" s="0">
+        <v>0.054539983098881493</v>
+      </c>
+      <c r="W75" s="0">
+        <v>0.786726499675653</v>
+      </c>
+      <c r="X75" s="0">
+        <v>9285.0044266790792</v>
+      </c>
+      <c r="Y75" s="0">
+        <v>0.039633275571029303</v>
+      </c>
+      <c r="Z75" s="0">
+        <v>0.016219872284280328</v>
+      </c>
+      <c r="AA75" s="0">
+        <v>0.18397030568393974</v>
+      </c>
+      <c r="AB75" s="0">
+        <v>8508.4265204597887</v>
+      </c>
+      <c r="AC75" s="0">
+        <v>0.032701260716959037</v>
+      </c>
+      <c r="AD75" s="0">
+        <v>0.90882035355889301</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>8643.5649999999987</v>
+      </c>
+      <c r="B76" s="0">
+        <v>458.39999999999998</v>
+      </c>
+      <c r="C76" s="0">
+        <v>140559.89477499999</v>
+      </c>
+      <c r="D76" s="0">
+        <v>11522.5191099067</v>
+      </c>
+      <c r="E76" s="0">
+        <v>128710</v>
+      </c>
+      <c r="F76" s="0">
+        <v>840857</v>
+      </c>
+      <c r="G76" s="0">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H76" s="0">
+        <v>1</v>
+      </c>
+      <c r="I76" s="0">
+        <v>1</v>
+      </c>
+      <c r="J76" s="0">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="K76" s="0">
+        <v>50</v>
+      </c>
+      <c r="L76" s="0">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M76" s="0">
+        <v>0</v>
+      </c>
+      <c r="N76" s="0">
+        <v>0.12448555323476845</v>
+      </c>
+      <c r="O76" s="0">
+        <v>2.455042996108487</v>
+      </c>
+      <c r="P76" s="0">
+        <v>42807.375744530051</v>
+      </c>
+      <c r="Q76" s="0">
+        <v>0.11450370962860709</v>
+      </c>
+      <c r="R76" s="0">
+        <v>0.032202960771435037</v>
+      </c>
+      <c r="S76" s="0">
+        <v>0.47479439549554381</v>
+      </c>
+      <c r="T76" s="0">
+        <v>24797.324642173189</v>
+      </c>
+      <c r="U76" s="0">
+        <v>0.089036145255518451</v>
+      </c>
+      <c r="V76" s="0">
+        <v>0.054578066694362971</v>
+      </c>
+      <c r="W76" s="0">
+        <v>0.77745283453145675</v>
+      </c>
+      <c r="X76" s="0">
+        <v>9291.6310542256761</v>
+      </c>
+      <c r="Y76" s="0">
+        <v>0.039730446766468343</v>
+      </c>
+      <c r="Z76" s="0">
+        <v>0.016219872284280328</v>
+      </c>
+      <c r="AA76" s="0">
+        <v>0.18397030568393977</v>
+      </c>
+      <c r="AB76" s="0">
+        <v>8499.7072844520189</v>
+      </c>
+      <c r="AC76" s="0">
+        <v>0.032598729622761155</v>
+      </c>
+      <c r="AD76" s="0">
+        <v>0.9073853462899133</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>8745.253999999999</v>
+      </c>
+      <c r="B77" s="0">
+        <v>458.39999999999998</v>
+      </c>
+      <c r="C77" s="0">
+        <v>140559.89477499999</v>
+      </c>
+      <c r="D77" s="0">
+        <v>11522.5191099067</v>
+      </c>
+      <c r="E77" s="0">
+        <v>128710</v>
+      </c>
+      <c r="F77" s="0">
+        <v>840857</v>
+      </c>
+      <c r="G77" s="0">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H77" s="0">
+        <v>1</v>
+      </c>
+      <c r="I77" s="0">
+        <v>1</v>
+      </c>
+      <c r="J77" s="0">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="K77" s="0">
+        <v>50</v>
+      </c>
+      <c r="L77" s="0">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M77" s="0">
+        <v>0</v>
+      </c>
+      <c r="N77" s="0">
+        <v>0.12455118611099109</v>
+      </c>
+      <c r="O77" s="0">
+        <v>2.4295638974079772</v>
+      </c>
+      <c r="P77" s="0">
+        <v>42816.902208714309</v>
+      </c>
+      <c r="Q77" s="0">
+        <v>0.11465379851946739</v>
+      </c>
+      <c r="R77" s="0">
+        <v>0.032202960771435023</v>
+      </c>
+      <c r="S77" s="0">
+        <v>0.47479439549554314</v>
+      </c>
+      <c r="T77" s="0">
+        <v>24758.648264066214</v>
+      </c>
+      <c r="U77" s="0">
+        <v>0.088734441343522652</v>
+      </c>
+      <c r="V77" s="0">
+        <v>0.054616981087769842</v>
+      </c>
+      <c r="W77" s="0">
+        <v>0.76844214096840668</v>
+      </c>
+      <c r="X77" s="0">
+        <v>9298.3533882607517</v>
+      </c>
+      <c r="Y77" s="0">
+        <v>0.039828346130381033</v>
+      </c>
+      <c r="Z77" s="0">
+        <v>0.016219872284280325</v>
+      </c>
+      <c r="AA77" s="0">
+        <v>0.18397030568393971</v>
+      </c>
+      <c r="AB77" s="0">
+        <v>8491.0863108013873</v>
+      </c>
+      <c r="AC77" s="0">
+        <v>0.03249660089441931</v>
+      </c>
+      <c r="AD77" s="0">
+        <v>0.9059960468228877</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>8846.9429999999993</v>
+      </c>
+      <c r="B78" s="0">
+        <v>458.39999999999998</v>
+      </c>
+      <c r="C78" s="0">
+        <v>140559.89477499999</v>
+      </c>
+      <c r="D78" s="0">
+        <v>11522.5191099067</v>
+      </c>
+      <c r="E78" s="0">
+        <v>128710</v>
+      </c>
+      <c r="F78" s="0">
+        <v>840857</v>
+      </c>
+      <c r="G78" s="0">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H78" s="0">
+        <v>1</v>
+      </c>
+      <c r="I78" s="0">
+        <v>1</v>
+      </c>
+      <c r="J78" s="0">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="K78" s="0">
+        <v>50</v>
+      </c>
+      <c r="L78" s="0">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M78" s="0">
+        <v>0</v>
+      </c>
+      <c r="N78" s="0">
+        <v>0.12463188526736779</v>
+      </c>
+      <c r="O78" s="0">
+        <v>2.4045782335689498</v>
+      </c>
+      <c r="P78" s="0">
+        <v>42826.324896542195</v>
+      </c>
+      <c r="Q78" s="0">
+        <v>0.11480997021891334</v>
+      </c>
+      <c r="R78" s="0">
+        <v>0.03220296077143505</v>
+      </c>
+      <c r="S78" s="0">
+        <v>0.47479439549554359</v>
+      </c>
+      <c r="T78" s="0">
+        <v>24718.754358906521</v>
+      </c>
+      <c r="U78" s="0">
+        <v>0.088432532432743391</v>
+      </c>
+      <c r="V78" s="0">
+        <v>0.054656715210403647</v>
+      </c>
+      <c r="W78" s="0">
+        <v>0.75968542611329481</v>
+      </c>
+      <c r="X78" s="0">
+        <v>9305.166674091357</v>
+      </c>
+      <c r="Y78" s="0">
+        <v>0.039926925223572038</v>
+      </c>
+      <c r="Z78" s="0">
+        <v>0.016219872284280328</v>
+      </c>
+      <c r="AA78" s="0">
+        <v>0.18397030568393971</v>
+      </c>
+      <c r="AB78" s="0">
+        <v>8482.5664579117583</v>
+      </c>
+      <c r="AC78" s="0">
+        <v>0.03239494622460351</v>
+      </c>
+      <c r="AD78" s="0">
+        <v>0.90465106412445984</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>8948.6319999999996</v>
+      </c>
+      <c r="B79" s="0">
+        <v>458.39999999999998</v>
+      </c>
+      <c r="C79" s="0">
+        <v>140559.89477499999</v>
+      </c>
+      <c r="D79" s="0">
+        <v>11522.5191099067</v>
+      </c>
+      <c r="E79" s="0">
+        <v>128710</v>
+      </c>
+      <c r="F79" s="0">
+        <v>840857</v>
+      </c>
+      <c r="G79" s="0">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H79" s="0">
+        <v>1</v>
+      </c>
+      <c r="I79" s="0">
+        <v>1</v>
+      </c>
+      <c r="J79" s="0">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="K79" s="0">
+        <v>50</v>
+      </c>
+      <c r="L79" s="0">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M79" s="0">
+        <v>0</v>
+      </c>
+      <c r="N79" s="0">
+        <v>0.1247267116655108</v>
+      </c>
+      <c r="O79" s="0">
+        <v>2.3800995860015171</v>
+      </c>
+      <c r="P79" s="0">
+        <v>42835.778821280619</v>
+      </c>
+      <c r="Q79" s="0">
+        <v>0.1149717889446724</v>
+      </c>
+      <c r="R79" s="0">
+        <v>0.032202960771435071</v>
+      </c>
+      <c r="S79" s="0">
+        <v>0.47479439549554336</v>
+      </c>
+      <c r="T79" s="0">
+        <v>24677.648011202062</v>
+      </c>
+      <c r="U79" s="0">
+        <v>0.088130607435643493</v>
+      </c>
+      <c r="V79" s="0">
+        <v>0.054697258739366386</v>
+      </c>
+      <c r="W79" s="0">
+        <v>0.75117407141214465</v>
+      </c>
+      <c r="X79" s="0">
+        <v>9312.066275973566</v>
+      </c>
+      <c r="Y79" s="0">
+        <v>0.040026136799799578</v>
+      </c>
+      <c r="Z79" s="0">
+        <v>0.016219872284280339</v>
+      </c>
+      <c r="AA79" s="0">
+        <v>0.18397030568393977</v>
+      </c>
+      <c r="AB79" s="0">
+        <v>8474.1505322272988</v>
+      </c>
+      <c r="AC79" s="0">
+        <v>0.032293836069456079</v>
+      </c>
+      <c r="AD79" s="0">
+        <v>0.90334906416929495</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>9050.3209999999999</v>
+      </c>
+      <c r="B80" s="0">
+        <v>458.39999999999998</v>
+      </c>
+      <c r="C80" s="0">
+        <v>140559.89477499999</v>
+      </c>
+      <c r="D80" s="0">
+        <v>11522.5191099067</v>
+      </c>
+      <c r="E80" s="0">
+        <v>128710</v>
+      </c>
+      <c r="F80" s="0">
+        <v>840857</v>
+      </c>
+      <c r="G80" s="0">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H80" s="0">
+        <v>1</v>
+      </c>
+      <c r="I80" s="0">
+        <v>1</v>
+      </c>
+      <c r="J80" s="0">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="K80" s="0">
+        <v>50</v>
+      </c>
+      <c r="L80" s="0">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M80" s="0">
+        <v>0</v>
+      </c>
+      <c r="N80" s="0">
+        <v>0.12483462236376713</v>
+      </c>
+      <c r="O80" s="0">
+        <v>2.356140908765175</v>
+      </c>
+      <c r="P80" s="0">
+        <v>42845.397287686021</v>
+      </c>
+      <c r="Q80" s="0">
+        <v>0.11513881216471036</v>
+      </c>
+      <c r="R80" s="0">
+        <v>0.032202960771435044</v>
+      </c>
+      <c r="S80" s="0">
+        <v>0.47479439549554381</v>
+      </c>
+      <c r="T80" s="0">
+        <v>24635.338904206579</v>
+      </c>
+      <c r="U80" s="0">
+        <v>0.087828859120331948</v>
+      </c>
+      <c r="V80" s="0">
+        <v>0.054738602106884915</v>
+      </c>
+      <c r="W80" s="0">
+        <v>0.74289981933203852</v>
+      </c>
+      <c r="X80" s="0">
+        <v>9319.047739488773</v>
+      </c>
+      <c r="Y80" s="0">
+        <v>0.040125935600206088</v>
+      </c>
+      <c r="Z80" s="0">
+        <v>0.016219872284280325</v>
+      </c>
+      <c r="AA80" s="0">
+        <v>0.18397030568393977</v>
+      </c>
+      <c r="AB80" s="0">
+        <v>8465.8412393606632</v>
+      </c>
+      <c r="AC80" s="0">
+        <v>0.032193338981768689</v>
+      </c>
+      <c r="AD80" s="0">
+        <v>0.90208876834395624</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>9152.0100000000002</v>
+      </c>
+      <c r="B81" s="0">
+        <v>458.39999999999998</v>
+      </c>
+      <c r="C81" s="0">
+        <v>140559.89477499999</v>
+      </c>
+      <c r="D81" s="0">
+        <v>11522.5191099067</v>
+      </c>
+      <c r="E81" s="0">
+        <v>128710</v>
+      </c>
+      <c r="F81" s="0">
+        <v>840857</v>
+      </c>
+      <c r="G81" s="0">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H81" s="0">
+        <v>1</v>
+      </c>
+      <c r="I81" s="0">
+        <v>1</v>
+      </c>
+      <c r="J81" s="0">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="K81" s="0">
+        <v>50</v>
+      </c>
+      <c r="L81" s="0">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M81" s="0">
+        <v>0</v>
+      </c>
+      <c r="N81" s="0">
+        <v>0.12495460698504046</v>
+      </c>
+      <c r="O81" s="0">
+        <v>2.3327144943966918</v>
+      </c>
+      <c r="P81" s="0">
+        <v>42855.311522491378</v>
+      </c>
+      <c r="Q81" s="0">
+        <v>0.115310601308068</v>
+      </c>
+      <c r="R81" s="0">
+        <v>0.03220296077143505</v>
+      </c>
+      <c r="S81" s="0">
+        <v>0.47479439549554336</v>
+      </c>
+      <c r="T81" s="0">
+        <v>24591.841827472734</v>
+      </c>
+      <c r="U81" s="0">
+        <v>0.087527522153637183</v>
+      </c>
+      <c r="V81" s="0">
+        <v>0.054780736487132331</v>
+      </c>
+      <c r="W81" s="0">
+        <v>0.73485476022944052</v>
+      </c>
+      <c r="X81" s="0">
+        <v>9326.1068479593978</v>
+      </c>
+      <c r="Y81" s="0">
+        <v>0.040226279070931147</v>
+      </c>
+      <c r="Z81" s="0">
+        <v>0.016219872284280335</v>
+      </c>
+      <c r="AA81" s="0">
+        <v>0.18397030568393977</v>
+      </c>
+      <c r="AB81" s="0">
+        <v>8457.6411388736851</v>
+      </c>
+      <c r="AC81" s="0">
+        <v>0.032093520978245714</v>
+      </c>
+      <c r="AD81" s="0">
+        <v>0.9008689541943502</v>
       </c>
     </row>
   </sheetData>
